--- a/dumps/Stocks/Tata Chemicals.xlsx
+++ b/dumps/Stocks/Tata Chemicals.xlsx
@@ -16,10 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$₹]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd-mmm-yyyy"/>
     <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -210,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -465,6 +466,7 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,7 +774,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP993"/>
+  <dimension ref="A1:AP994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1121,38 +1123,42 @@
       <c r="AP4" s="63" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="95" t="n">
-        <v>46049</v>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="A5" s="96" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C5" s="0" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>713.7</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>5031.32</v>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>710</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3575.15</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>30.42</v>
+      <c r="H5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I5" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="J5">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -1170,13 +1176,13 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>713.95</v>
+        <v>713.7</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2157.04</v>
+        <v>5031.32</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
@@ -1184,15 +1190,15 @@
         </is>
       </c>
       <c r="H6" s="0" t="n">
-        <v>2.14</v>
+        <v>5</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>13.05</v>
+        <v>30.42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="95" t="n">
-        <v>46027</v>
+        <v>46049</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1205,13 +1211,13 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>755.25</v>
+        <v>713.95</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3803.04</v>
+        <v>2157.04</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
@@ -1219,19 +1225,19 @@
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>3.77</v>
+        <v>2.14</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>23.02</v>
+        <v>13.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="95" t="n">
-        <v>46017</v>
+        <v>46027</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
@@ -1243,10 +1249,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>768.05</v>
+        <v>755.25</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3867.5</v>
+        <v>3803.04</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1254,19 +1260,19 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>3.85</v>
+        <v>3.77</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>23.4</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="95" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -1278,10 +1284,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>770.85</v>
+        <v>768.05</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3881.52</v>
+        <v>3867.5</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1289,15 +1295,15 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>3.83</v>
+        <v>3.85</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>23.44</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="95" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1310,13 +1316,13 @@
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>774.45</v>
+        <v>770.85</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3119.72</v>
+        <v>3881.52</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1324,10 +1330,10 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3.09</v>
+        <v>3.83</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>18.83</v>
+        <v>23.44</v>
       </c>
     </row>
     <row r="11">
@@ -1345,13 +1351,13 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>774.45</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>779.9299999999999</v>
+        <v>3119.72</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1359,19 +1365,19 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.77</v>
+        <v>3.09</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>4.71</v>
+        <v>18.83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="95" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1380,13 +1386,13 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>747</v>
+        <v>774.45</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3761.52</v>
+        <v>779.9299999999999</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1394,19 +1400,19 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>3.75</v>
+        <v>0.77</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>22.77</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="95" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1415,13 +1421,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>764.2</v>
+        <v>747</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>769.59</v>
+        <v>3761.52</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1429,10 +1435,10 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.76</v>
+        <v>3.75</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>4.63</v>
+        <v>22.77</v>
       </c>
     </row>
     <row r="14">
@@ -1450,13 +1456,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>764.25</v>
+        <v>764.2</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3078.68</v>
+        <v>769.59</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1464,15 +1470,15 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>3.05</v>
+        <v>0.76</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>18.63</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="95" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1485,13 +1491,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>756</v>
+        <v>764.25</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>761.35</v>
+        <v>3078.68</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1499,10 +1505,10 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.76</v>
+        <v>3.05</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>4.59</v>
+        <v>18.63</v>
       </c>
     </row>
     <row r="16">
@@ -1520,13 +1526,13 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>756</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3045.44</v>
+        <v>761.35</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1534,15 +1540,15 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>3.03</v>
+        <v>0.76</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>18.41</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="95" t="n">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1555,13 +1561,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>755.25</v>
+        <v>756</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3803.04</v>
+        <v>3045.44</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1569,15 +1575,15 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>3.77</v>
+        <v>3.03</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>23.02</v>
+        <v>18.41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="95" t="n">
-        <v>45993</v>
+        <v>46000</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1590,13 +1596,13 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>790.8</v>
+        <v>755.25</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>796.41</v>
+        <v>3803.04</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1604,10 +1610,10 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.8</v>
+        <v>3.77</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>4.81</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="19">
@@ -1625,13 +1631,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>790.8</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>3185.6</v>
+        <v>796.41</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1639,15 +1645,15 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>3.18</v>
+        <v>0.8</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>19.22</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="95" t="n">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1660,13 +1666,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>804</v>
+        <v>790.8</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>4048.49</v>
+        <v>3185.6</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1674,19 +1680,19 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>4.01</v>
+        <v>3.18</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>24.48</v>
+        <v>19.22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="95" t="n">
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -1698,10 +1704,10 @@
         <v>5</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>812.9</v>
+        <v>804</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>4093.29</v>
+        <v>4048.49</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1709,19 +1715,19 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>4.04</v>
+        <v>4.01</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>24.75</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="95" t="n">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -1733,10 +1739,10 @@
         <v>5</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>812.45</v>
+        <v>812.9</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>4091.01</v>
+        <v>4093.29</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1744,15 +1750,15 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>24.7</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="95" t="n">
-        <v>45979</v>
+        <v>45982</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
@@ -1765,13 +1771,13 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>830.05</v>
+        <v>812.45</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>835.92</v>
+        <v>4091.01</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1779,10 +1785,10 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.83</v>
+        <v>4.06</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>5.04</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="24">
@@ -1800,13 +1806,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>830.1</v>
+        <v>830.05</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>3343.93</v>
+        <v>835.92</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1814,19 +1820,19 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>3.33</v>
+        <v>0.83</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>20.2</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="95" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
@@ -1835,13 +1841,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>839</v>
+        <v>830.1</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>4224.8</v>
+        <v>3343.93</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1849,19 +1855,19 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>4.22</v>
+        <v>3.33</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>25.58</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="95" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
@@ -1873,10 +1879,10 @@
         <v>5</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>837.05</v>
+        <v>839</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>4214.94</v>
+        <v>4224.8</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1884,15 +1890,15 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>4.2</v>
+        <v>4.22</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>25.49</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="95" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
@@ -1905,13 +1911,13 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>845.75</v>
+        <v>837.05</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>2555.24</v>
+        <v>4214.94</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1919,10 +1925,10 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>2.53</v>
+        <v>4.2</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>15.46</v>
+        <v>25.49</v>
       </c>
     </row>
     <row r="28">
@@ -1940,13 +1946,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>845.75</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1703.47</v>
+        <v>2555.24</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1954,15 +1960,15 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>1.68</v>
+        <v>2.53</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>10.29</v>
+        <v>15.46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="95" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
@@ -1975,13 +1981,13 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>842.15</v>
+        <v>845.75</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>4240.56</v>
+        <v>1703.47</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -1989,15 +1995,15 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>4.18</v>
+        <v>1.68</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>25.63</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="95" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
@@ -2013,10 +2019,10 @@
         <v>5</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>844.15</v>
+        <v>842.15</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>4250.61</v>
+        <v>4240.56</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
@@ -2024,19 +2030,19 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>4.2</v>
+        <v>4.18</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>25.66</v>
+        <v>25.63</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="95" t="n">
-        <v>45961</v>
+        <v>45971</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C31" s="0" t="inlineStr">
@@ -2048,10 +2054,10 @@
         <v>5</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>892.95</v>
+        <v>844.15</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>4496.39</v>
+        <v>4250.61</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
@@ -2059,15 +2065,15 @@
         </is>
       </c>
       <c r="H31" s="0" t="n">
-        <v>4.45</v>
+        <v>4.2</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>27.19</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="95" t="n">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
@@ -2083,10 +2089,10 @@
         <v>5</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>894.2</v>
+        <v>892.95</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>4502.73</v>
+        <v>4496.39</v>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
@@ -2094,113 +2100,50 @@
         </is>
       </c>
       <c r="H32" s="0" t="n">
-        <v>4.48</v>
+        <v>4.45</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>27.25</v>
+        <v>27.19</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B33" s="39" t="inlineStr">
+      <c r="A33" s="95" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
-      <c r="C33" s="39" t="inlineStr">
+      <c r="C33" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D33" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E33" s="41" t="n">
-        <v>401.57</v>
-      </c>
-      <c r="F33" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G33" s="39" t="inlineStr">
+      <c r="D33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>894.2</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>4502.73</v>
+      </c>
+      <c r="G33" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H33" s="40" t="n"/>
-      <c r="I33" s="40" t="n"/>
-      <c r="J33" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K33" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L33" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M33" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N33" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O33" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P33" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q33" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R33" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S33" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T33" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U33" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V33" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W33" s="47" t="n"/>
-      <c r="X33" s="47" t="n"/>
-      <c r="Y33" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z33" s="47" t="n"/>
-      <c r="AA33" s="47" t="n"/>
-      <c r="AB33" s="48" t="n"/>
-      <c r="AC33" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD33" s="49" t="n"/>
+      <c r="H33" s="0" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>27.25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B34" s="39" t="inlineStr">
         <is>
@@ -2213,13 +2156,13 @@
         </is>
       </c>
       <c r="D34" s="40" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E34" s="41" t="n">
-        <v>400.62</v>
+        <v>401.57</v>
       </c>
       <c r="F34" s="41">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G34" s="39" t="inlineStr">
@@ -2234,75 +2177,75 @@
         <v/>
       </c>
       <c r="K34" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L34" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M34" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N34" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O34" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P34" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q34" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R34" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S34" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T34" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U34" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V34" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W34" s="47" t="n"/>
       <c r="X34" s="47" t="n"/>
       <c r="Y34" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z34" s="47" t="n"/>
       <c r="AA34" s="47" t="n"/>
       <c r="AB34" s="48" t="n"/>
       <c r="AC34" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD34" s="49" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="38" t="n">
-        <v>45812</v>
+        <v>45947</v>
       </c>
       <c r="B35" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C35" s="39" t="inlineStr">
@@ -2314,96 +2257,93 @@
         <v>20</v>
       </c>
       <c r="E35" s="41" t="n">
-        <v>6</v>
-      </c>
-      <c r="F35" s="41" t="n">
-        <v>120</v>
+        <v>400.62</v>
+      </c>
+      <c r="F35" s="41">
+        <f>D6*E6</f>
+        <v/>
       </c>
       <c r="G35" s="39" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.6.0000/- per share on Ex-Date: 04-JUN-2025</t>
+          <t>~</t>
         </is>
       </c>
-      <c r="H35" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="40" t="n">
-        <v>0</v>
-      </c>
+      <c r="H35" s="40" t="n"/>
+      <c r="I35" s="40" t="n"/>
       <c r="J35" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K35" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L35" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M35" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N35" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O35" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P35" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q35" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R35" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S35" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T35" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U35" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V35" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W35" s="47" t="n"/>
       <c r="X35" s="47" t="n"/>
       <c r="Y35" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z35" s="47" t="n"/>
       <c r="AA35" s="47" t="n"/>
       <c r="AB35" s="48" t="n"/>
       <c r="AC35" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD35" s="49" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="38" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B36" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C36" s="39" t="inlineStr">
@@ -2412,195 +2352,196 @@
         </is>
       </c>
       <c r="D36" s="40" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E36" s="41" t="n">
-        <v>716.9</v>
+        <v>6</v>
       </c>
       <c r="F36" s="41" t="n">
-        <v>3584.48</v>
+        <v>120</v>
       </c>
       <c r="G36" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.6.0000/- per share on Ex-Date: 04-JUN-2025</t>
         </is>
       </c>
       <c r="H36" s="40" t="n">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="I36" s="40" t="n">
-        <v>21.67</v>
+        <v>0</v>
       </c>
       <c r="J36" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K36" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L36" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M36" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N36" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O36" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P36" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R36" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S36" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T36" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U36" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V36" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W36" s="47" t="n"/>
       <c r="X36" s="47" t="n"/>
       <c r="Y36" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z36" s="47" t="n"/>
       <c r="AA36" s="47" t="n"/>
       <c r="AB36" s="48" t="n"/>
       <c r="AC36" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD36" s="49" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="50" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B37" s="51" t="inlineStr">
+      <c r="A37" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B37" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C37" s="51" t="inlineStr">
+      <c r="C37" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D37" s="52" t="n">
+      <c r="D37" s="40" t="n">
         <v>5</v>
       </c>
-      <c r="E37" s="53" t="n">
-        <v>682.21</v>
-      </c>
-      <c r="F37" s="54">
-        <f>E9*D9 + sum(H9:I9)</f>
-        <v/>
-      </c>
-      <c r="G37" s="51" t="inlineStr">
+      <c r="E37" s="41" t="n">
+        <v>716.9</v>
+      </c>
+      <c r="F37" s="41" t="n">
+        <v>3584.48</v>
+      </c>
+      <c r="G37" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H37" s="52" t="n"/>
-      <c r="I37" s="52" t="n">
-        <v>24.05</v>
+      <c r="H37" s="40" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="I37" s="40" t="n">
+        <v>21.67</v>
       </c>
       <c r="J37" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L37" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M37" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N37" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O37" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P37" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R37" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S37" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T37" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U37" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V37" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W37" s="47" t="n"/>
       <c r="X37" s="47" t="n"/>
       <c r="Y37" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z37" s="47" t="n"/>
       <c r="AA37" s="47" t="n"/>
       <c r="AB37" s="48" t="n"/>
       <c r="AC37" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD37" s="49" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="50" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B38" s="51" t="inlineStr">
         <is>
@@ -2613,95 +2554,94 @@
         </is>
       </c>
       <c r="D38" s="52" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E38" s="53" t="n">
-        <v>641.52</v>
-      </c>
-      <c r="F38" s="53" t="n">
-        <v>6415.23</v>
+        <v>682.21</v>
+      </c>
+      <c r="F38" s="54">
+        <f>E9*D9 + sum(H9:I9)</f>
+        <v/>
       </c>
       <c r="G38" s="51" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H38" s="52" t="n">
-        <v>6.4</v>
-      </c>
+      <c r="H38" s="52" t="n"/>
       <c r="I38" s="52" t="n">
-        <v>38.83</v>
+        <v>24.05</v>
       </c>
       <c r="J38" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L38" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M38" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N38" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O38" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P38" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R38" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S38" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T38" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U38" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V38" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W38" s="47" t="n"/>
       <c r="X38" s="47" t="n"/>
       <c r="Y38" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z38" s="47" t="n"/>
       <c r="AA38" s="47" t="n"/>
       <c r="AB38" s="48" t="n"/>
       <c r="AC38" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD38" s="49" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="50" t="n">
-        <v>44228</v>
+        <v>45722</v>
       </c>
       <c r="B39" s="51" t="inlineStr">
         <is>
@@ -2710,17 +2650,17 @@
       </c>
       <c r="C39" s="51" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D39" s="52" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E39" s="53" t="n">
-        <v>276.62</v>
+        <v>641.52</v>
       </c>
       <c r="F39" s="53" t="n">
-        <v>13831.06</v>
+        <v>6415.23</v>
       </c>
       <c r="G39" s="51" t="inlineStr">
         <is>
@@ -2728,81 +2668,81 @@
         </is>
       </c>
       <c r="H39" s="52" t="n">
-        <v>13.93</v>
+        <v>6.4</v>
       </c>
       <c r="I39" s="52" t="n">
-        <v>82.51000000000001</v>
+        <v>38.83</v>
       </c>
       <c r="J39" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L39" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M39" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N39" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O39" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P39" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R39" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S39" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T39" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U39" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V39" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W39" s="47" t="n"/>
       <c r="X39" s="47" t="n"/>
       <c r="Y39" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z39" s="47" t="n"/>
       <c r="AA39" s="47" t="n"/>
       <c r="AB39" s="48" t="n"/>
       <c r="AC39" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD39" s="49" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="50" t="n">
-        <v>43405</v>
+        <v>44228</v>
       </c>
       <c r="B40" s="51" t="inlineStr">
         <is>
@@ -2811,17 +2751,17 @@
       </c>
       <c r="C40" s="51" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D40" s="52" t="n">
         <v>50</v>
       </c>
       <c r="E40" s="53" t="n">
-        <v>183.08</v>
+        <v>276.62</v>
       </c>
       <c r="F40" s="53" t="n">
-        <v>9154.049999999999</v>
+        <v>13831.06</v>
       </c>
       <c r="G40" s="51" t="inlineStr">
         <is>
@@ -2829,109 +2769,194 @@
         </is>
       </c>
       <c r="H40" s="52" t="n">
-        <v>9.1</v>
+        <v>13.93</v>
       </c>
       <c r="I40" s="52" t="n">
-        <v>54.95</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K40" s="47" t="n"/>
-      <c r="L40" s="47">
+      <c r="K40" s="43">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="L40" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="M40" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <v/>
+      </c>
+      <c r="N40" s="45">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <v/>
+      </c>
+      <c r="O40" s="43">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="P40" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="Q40" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <v/>
+      </c>
+      <c r="R40" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="S40" s="46">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="T40" s="47">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="U40" s="47">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <v/>
+      </c>
+      <c r="V40" s="47">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="W40" s="47" t="n"/>
+      <c r="X40" s="47" t="n"/>
+      <c r="Y40" s="46">
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="Z40" s="47" t="n"/>
+      <c r="AA40" s="47" t="n"/>
+      <c r="AB40" s="48" t="n"/>
+      <c r="AC40" s="44">
+        <f>if(B11="DIV", F11,"")</f>
+        <v/>
+      </c>
+      <c r="AD40" s="49" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="50" t="n">
+        <v>43405</v>
+      </c>
+      <c r="B41" s="51" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C41" s="51" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D41" s="52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E41" s="53" t="n">
+        <v>183.08</v>
+      </c>
+      <c r="F41" s="53" t="n">
+        <v>9154.049999999999</v>
+      </c>
+      <c r="G41" s="51" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H41" s="52" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I41" s="52" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="J41" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K41" s="47" t="n"/>
+      <c r="L41" s="47">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
-      <c r="M40" s="55">
+      <c r="M41" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
-      <c r="N40" s="56">
+      <c r="N41" s="56">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
-      <c r="O40" s="55" t="n"/>
-      <c r="P40" s="47">
+      <c r="O41" s="55" t="n"/>
+      <c r="P41" s="47">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
-      <c r="Q40" s="55">
+      <c r="Q41" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
-      <c r="R40" s="55">
+      <c r="R41" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
-      <c r="S40" s="55" t="n"/>
-      <c r="T40" s="55">
+      <c r="S41" s="55" t="n"/>
+      <c r="T41" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (J12*D12)-(E12*D12)-(2*sum(H12:I12)), "")</f>
         <v/>
       </c>
-      <c r="U40" s="55">
+      <c r="U41" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
-      <c r="V40" s="55">
+      <c r="V41" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
-      <c r="W40" s="53" t="n">
+      <c r="W41" s="53" t="n">
         <v>276.62</v>
       </c>
-      <c r="X40" s="50" t="n">
+      <c r="X41" s="50" t="n">
         <v>44228</v>
       </c>
-      <c r="Y40" s="46">
+      <c r="Y41" s="46">
         <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
-      <c r="Z40" s="57">
+      <c r="Z41" s="57">
         <f>(1-Index!$F$2*2)*((W12*D12)-(E12*D12))</f>
         <v/>
       </c>
-      <c r="AA40" s="57">
+      <c r="AA41" s="57">
         <f>((E12*D12)+Z12)</f>
         <v/>
       </c>
-      <c r="AB40" s="58">
+      <c r="AB41" s="58">
         <f>D12</f>
         <v/>
       </c>
-      <c r="AC40" s="44">
+      <c r="AC41" s="44">
         <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
-      <c r="AD40" s="49" t="n"/>
-      <c r="AE40" s="59" t="n"/>
-      <c r="AF40" s="59" t="n"/>
-      <c r="AG40" s="59" t="n"/>
-      <c r="AH40" s="59" t="n"/>
-      <c r="AI40" s="59" t="n"/>
-      <c r="AJ40" s="59" t="n"/>
-      <c r="AK40" s="59" t="n"/>
-      <c r="AL40" s="59" t="n"/>
-      <c r="AM40" s="59" t="n"/>
-      <c r="AN40" s="59" t="n"/>
-      <c r="AO40" s="59" t="n"/>
-      <c r="AP40" s="59" t="n"/>
-    </row>
-    <row r="41">
-      <c r="E41" s="60" t="n"/>
-      <c r="F41" s="60" t="n"/>
-      <c r="G41" s="61" t="n"/>
-      <c r="J41" s="60" t="n"/>
-      <c r="K41" s="60" t="n"/>
-      <c r="L41" s="60" t="n"/>
-      <c r="M41" s="63" t="n"/>
-      <c r="W41" s="60" t="n"/>
-      <c r="X41" s="60" t="n"/>
-      <c r="Y41" s="60" t="n"/>
-      <c r="Z41" s="60" t="n"/>
-      <c r="AA41" s="60" t="n"/>
-      <c r="AB41" s="60" t="n"/>
-      <c r="AC41" s="60" t="n"/>
+      <c r="AD41" s="49" t="n"/>
+      <c r="AE41" s="59" t="n"/>
+      <c r="AF41" s="59" t="n"/>
+      <c r="AG41" s="59" t="n"/>
+      <c r="AH41" s="59" t="n"/>
+      <c r="AI41" s="59" t="n"/>
+      <c r="AJ41" s="59" t="n"/>
+      <c r="AK41" s="59" t="n"/>
+      <c r="AL41" s="59" t="n"/>
+      <c r="AM41" s="59" t="n"/>
+      <c r="AN41" s="59" t="n"/>
+      <c r="AO41" s="59" t="n"/>
+      <c r="AP41" s="59" t="n"/>
     </row>
     <row r="42">
       <c r="E42" s="60" t="n"/>
@@ -17900,6 +17925,7 @@
       <c r="J977" s="60" t="n"/>
       <c r="K977" s="60" t="n"/>
       <c r="L977" s="60" t="n"/>
+      <c r="M977" s="63" t="n"/>
       <c r="W977" s="60" t="n"/>
       <c r="X977" s="60" t="n"/>
       <c r="Y977" s="60" t="n"/>
@@ -18147,6 +18173,21 @@
       <c r="AA993" s="60" t="n"/>
       <c r="AB993" s="60" t="n"/>
       <c r="AC993" s="60" t="n"/>
+    </row>
+    <row r="994">
+      <c r="E994" s="60" t="n"/>
+      <c r="F994" s="60" t="n"/>
+      <c r="G994" s="61" t="n"/>
+      <c r="J994" s="60" t="n"/>
+      <c r="K994" s="60" t="n"/>
+      <c r="L994" s="60" t="n"/>
+      <c r="W994" s="60" t="n"/>
+      <c r="X994" s="60" t="n"/>
+      <c r="Y994" s="60" t="n"/>
+      <c r="Z994" s="60" t="n"/>
+      <c r="AA994" s="60" t="n"/>
+      <c r="AB994" s="60" t="n"/>
+      <c r="AC994" s="60" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$42"/>

--- a/dumps/Stocks/Tata Chemicals.xlsx
+++ b/dumps/Stocks/Tata Chemicals.xlsx
@@ -774,7 +774,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP994"/>
+  <dimension ref="A1:AP995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1124,11 +1124,11 @@
     </row>
     <row r="5">
       <c r="A5" s="96" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1140,21 +1140,21 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>710</v>
+        <v>719.15</v>
       </c>
       <c r="F5" t="n">
-        <v>3575.15</v>
+        <v>3621.27</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3.55</v>
+        <v>3.59</v>
       </c>
       <c r="I5" t="n">
-        <v>21.6</v>
+        <v>21.93</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1162,8 +1162,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="95" t="n">
-        <v>46049</v>
+      <c r="A6" s="96" t="n">
+        <v>46062</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1176,24 +1176,28 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>713.7</v>
+        <v>710</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>5031.32</v>
+        <v>3575.15</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H6" s="0" t="n">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>30.42</v>
+        <v>21.6</v>
+      </c>
+      <c r="J6" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -1211,13 +1215,13 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>713.95</v>
+        <v>713.7</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2157.04</v>
+        <v>5031.32</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
@@ -1225,15 +1229,15 @@
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>2.14</v>
+        <v>5</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>13.05</v>
+        <v>30.42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="95" t="n">
-        <v>46027</v>
+        <v>46049</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1246,13 +1250,13 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>755.25</v>
+        <v>713.95</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3803.04</v>
+        <v>2157.04</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1260,19 +1264,19 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>3.77</v>
+        <v>2.14</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>23.02</v>
+        <v>13.05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="95" t="n">
-        <v>46017</v>
+        <v>46027</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -1284,10 +1288,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>768.05</v>
+        <v>755.25</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3867.5</v>
+        <v>3803.04</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1295,19 +1299,19 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>3.85</v>
+        <v>3.77</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>23.4</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="95" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1319,10 +1323,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>770.85</v>
+        <v>768.05</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3881.52</v>
+        <v>3867.5</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1330,15 +1334,15 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3.83</v>
+        <v>3.85</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>23.44</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="95" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1351,13 +1355,13 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>774.45</v>
+        <v>770.85</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3119.72</v>
+        <v>3881.52</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1365,10 +1369,10 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>3.09</v>
+        <v>3.83</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>18.83</v>
+        <v>23.44</v>
       </c>
     </row>
     <row r="12">
@@ -1386,13 +1390,13 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>774.45</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>779.9299999999999</v>
+        <v>3119.72</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1400,19 +1404,19 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.77</v>
+        <v>3.09</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>4.71</v>
+        <v>18.83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="95" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1421,13 +1425,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>747</v>
+        <v>774.45</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3761.52</v>
+        <v>779.9299999999999</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1435,19 +1439,19 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>3.75</v>
+        <v>0.77</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>22.77</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="95" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1456,13 +1460,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>764.2</v>
+        <v>747</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>769.59</v>
+        <v>3761.52</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1470,10 +1474,10 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.76</v>
+        <v>3.75</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>4.63</v>
+        <v>22.77</v>
       </c>
     </row>
     <row r="15">
@@ -1491,13 +1495,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>764.25</v>
+        <v>764.2</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3078.68</v>
+        <v>769.59</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1505,15 +1509,15 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>3.05</v>
+        <v>0.76</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>18.63</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="95" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1526,13 +1530,13 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>756</v>
+        <v>764.25</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>761.35</v>
+        <v>3078.68</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1540,10 +1544,10 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.76</v>
+        <v>3.05</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>4.59</v>
+        <v>18.63</v>
       </c>
     </row>
     <row r="17">
@@ -1561,13 +1565,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>756</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3045.44</v>
+        <v>761.35</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1575,15 +1579,15 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>3.03</v>
+        <v>0.76</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>18.41</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="95" t="n">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1596,13 +1600,13 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>755.25</v>
+        <v>756</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3803.04</v>
+        <v>3045.44</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1610,15 +1614,15 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>3.77</v>
+        <v>3.03</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>23.02</v>
+        <v>18.41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="95" t="n">
-        <v>45993</v>
+        <v>46000</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -1631,13 +1635,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>790.8</v>
+        <v>755.25</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>796.41</v>
+        <v>3803.04</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1645,10 +1649,10 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.8</v>
+        <v>3.77</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>4.81</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="20">
@@ -1666,13 +1670,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>790.8</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>3185.6</v>
+        <v>796.41</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1680,15 +1684,15 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>3.18</v>
+        <v>0.8</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>19.22</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="95" t="n">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -1701,13 +1705,13 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>804</v>
+        <v>790.8</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>4048.49</v>
+        <v>3185.6</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1715,19 +1719,19 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>4.01</v>
+        <v>3.18</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>24.48</v>
+        <v>19.22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="95" t="n">
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -1739,10 +1743,10 @@
         <v>5</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>812.9</v>
+        <v>804</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>4093.29</v>
+        <v>4048.49</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1750,19 +1754,19 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>4.04</v>
+        <v>4.01</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>24.75</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="95" t="n">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -1774,10 +1778,10 @@
         <v>5</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>812.45</v>
+        <v>812.9</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>4091.01</v>
+        <v>4093.29</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1785,15 +1789,15 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>24.7</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="95" t="n">
-        <v>45979</v>
+        <v>45982</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
@@ -1806,13 +1810,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>830.05</v>
+        <v>812.45</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>835.92</v>
+        <v>4091.01</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1820,10 +1824,10 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.83</v>
+        <v>4.06</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>5.04</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="25">
@@ -1841,13 +1845,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>830.1</v>
+        <v>830.05</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>3343.93</v>
+        <v>835.92</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1855,19 +1859,19 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>3.33</v>
+        <v>0.83</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>20.2</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="95" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
@@ -1876,13 +1880,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>839</v>
+        <v>830.1</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>4224.8</v>
+        <v>3343.93</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1890,19 +1894,19 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>4.22</v>
+        <v>3.33</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>25.58</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="95" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
@@ -1914,10 +1918,10 @@
         <v>5</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>837.05</v>
+        <v>839</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>4214.94</v>
+        <v>4224.8</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1925,15 +1929,15 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>4.2</v>
+        <v>4.22</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>25.49</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="95" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
@@ -1946,13 +1950,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>845.75</v>
+        <v>837.05</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>2555.24</v>
+        <v>4214.94</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1960,10 +1964,10 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>2.53</v>
+        <v>4.2</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>15.46</v>
+        <v>25.49</v>
       </c>
     </row>
     <row r="29">
@@ -1981,13 +1985,13 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>845.75</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>1703.47</v>
+        <v>2555.24</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -1995,15 +1999,15 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>1.68</v>
+        <v>2.53</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>10.29</v>
+        <v>15.46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="95" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
@@ -2016,13 +2020,13 @@
         </is>
       </c>
       <c r="D30" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>842.15</v>
+        <v>845.75</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>4240.56</v>
+        <v>1703.47</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
@@ -2030,15 +2034,15 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>4.18</v>
+        <v>1.68</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>25.63</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="95" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
@@ -2054,10 +2058,10 @@
         <v>5</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>844.15</v>
+        <v>842.15</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>4250.61</v>
+        <v>4240.56</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
@@ -2065,19 +2069,19 @@
         </is>
       </c>
       <c r="H31" s="0" t="n">
-        <v>4.2</v>
+        <v>4.18</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>25.66</v>
+        <v>25.63</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="95" t="n">
-        <v>45961</v>
+        <v>45971</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
@@ -2089,10 +2093,10 @@
         <v>5</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>892.95</v>
+        <v>844.15</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>4496.39</v>
+        <v>4250.61</v>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
@@ -2100,15 +2104,15 @@
         </is>
       </c>
       <c r="H32" s="0" t="n">
-        <v>4.45</v>
+        <v>4.2</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>27.19</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="95" t="n">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
@@ -2124,10 +2128,10 @@
         <v>5</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>894.2</v>
+        <v>892.95</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>4502.73</v>
+        <v>4496.39</v>
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
@@ -2135,113 +2139,50 @@
         </is>
       </c>
       <c r="H33" s="0" t="n">
-        <v>4.48</v>
+        <v>4.45</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>27.25</v>
+        <v>27.19</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B34" s="39" t="inlineStr">
+      <c r="A34" s="95" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
-      <c r="C34" s="39" t="inlineStr">
+      <c r="C34" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D34" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E34" s="41" t="n">
-        <v>401.57</v>
-      </c>
-      <c r="F34" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G34" s="39" t="inlineStr">
+      <c r="D34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>894.2</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>4502.73</v>
+      </c>
+      <c r="G34" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H34" s="40" t="n"/>
-      <c r="I34" s="40" t="n"/>
-      <c r="J34" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K34" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L34" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M34" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N34" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O34" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P34" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q34" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R34" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S34" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T34" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U34" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V34" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W34" s="47" t="n"/>
-      <c r="X34" s="47" t="n"/>
-      <c r="Y34" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z34" s="47" t="n"/>
-      <c r="AA34" s="47" t="n"/>
-      <c r="AB34" s="48" t="n"/>
-      <c r="AC34" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD34" s="49" t="n"/>
+      <c r="H34" s="0" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>27.25</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B35" s="39" t="inlineStr">
         <is>
@@ -2254,13 +2195,13 @@
         </is>
       </c>
       <c r="D35" s="40" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E35" s="41" t="n">
-        <v>400.62</v>
+        <v>401.57</v>
       </c>
       <c r="F35" s="41">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G35" s="39" t="inlineStr">
@@ -2275,75 +2216,75 @@
         <v/>
       </c>
       <c r="K35" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L35" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M35" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N35" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O35" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P35" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q35" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R35" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S35" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T35" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U35" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V35" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W35" s="47" t="n"/>
       <c r="X35" s="47" t="n"/>
       <c r="Y35" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z35" s="47" t="n"/>
       <c r="AA35" s="47" t="n"/>
       <c r="AB35" s="48" t="n"/>
       <c r="AC35" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD35" s="49" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="38" t="n">
-        <v>45812</v>
+        <v>45947</v>
       </c>
       <c r="B36" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C36" s="39" t="inlineStr">
@@ -2355,96 +2296,93 @@
         <v>20</v>
       </c>
       <c r="E36" s="41" t="n">
-        <v>6</v>
-      </c>
-      <c r="F36" s="41" t="n">
-        <v>120</v>
+        <v>400.62</v>
+      </c>
+      <c r="F36" s="41">
+        <f>D6*E6</f>
+        <v/>
       </c>
       <c r="G36" s="39" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.6.0000/- per share on Ex-Date: 04-JUN-2025</t>
+          <t>~</t>
         </is>
       </c>
-      <c r="H36" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="40" t="n">
-        <v>0</v>
-      </c>
+      <c r="H36" s="40" t="n"/>
+      <c r="I36" s="40" t="n"/>
       <c r="J36" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K36" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L36" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M36" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N36" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O36" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P36" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R36" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S36" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T36" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U36" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V36" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W36" s="47" t="n"/>
       <c r="X36" s="47" t="n"/>
       <c r="Y36" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z36" s="47" t="n"/>
       <c r="AA36" s="47" t="n"/>
       <c r="AB36" s="48" t="n"/>
       <c r="AC36" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD36" s="49" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="38" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B37" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C37" s="39" t="inlineStr">
@@ -2453,195 +2391,196 @@
         </is>
       </c>
       <c r="D37" s="40" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E37" s="41" t="n">
-        <v>716.9</v>
+        <v>6</v>
       </c>
       <c r="F37" s="41" t="n">
-        <v>3584.48</v>
+        <v>120</v>
       </c>
       <c r="G37" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.6.0000/- per share on Ex-Date: 04-JUN-2025</t>
         </is>
       </c>
       <c r="H37" s="40" t="n">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="I37" s="40" t="n">
-        <v>21.67</v>
+        <v>0</v>
       </c>
       <c r="J37" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L37" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M37" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N37" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O37" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P37" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R37" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S37" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T37" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U37" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V37" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W37" s="47" t="n"/>
       <c r="X37" s="47" t="n"/>
       <c r="Y37" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z37" s="47" t="n"/>
       <c r="AA37" s="47" t="n"/>
       <c r="AB37" s="48" t="n"/>
       <c r="AC37" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD37" s="49" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="50" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B38" s="51" t="inlineStr">
+      <c r="A38" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B38" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C38" s="51" t="inlineStr">
+      <c r="C38" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D38" s="52" t="n">
+      <c r="D38" s="40" t="n">
         <v>5</v>
       </c>
-      <c r="E38" s="53" t="n">
-        <v>682.21</v>
-      </c>
-      <c r="F38" s="54">
-        <f>E9*D9 + sum(H9:I9)</f>
-        <v/>
-      </c>
-      <c r="G38" s="51" t="inlineStr">
+      <c r="E38" s="41" t="n">
+        <v>716.9</v>
+      </c>
+      <c r="F38" s="41" t="n">
+        <v>3584.48</v>
+      </c>
+      <c r="G38" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H38" s="52" t="n"/>
-      <c r="I38" s="52" t="n">
-        <v>24.05</v>
+      <c r="H38" s="40" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="I38" s="40" t="n">
+        <v>21.67</v>
       </c>
       <c r="J38" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L38" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M38" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N38" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O38" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P38" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R38" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S38" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T38" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U38" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V38" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W38" s="47" t="n"/>
       <c r="X38" s="47" t="n"/>
       <c r="Y38" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z38" s="47" t="n"/>
       <c r="AA38" s="47" t="n"/>
       <c r="AB38" s="48" t="n"/>
       <c r="AC38" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD38" s="49" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="50" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B39" s="51" t="inlineStr">
         <is>
@@ -2654,95 +2593,94 @@
         </is>
       </c>
       <c r="D39" s="52" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E39" s="53" t="n">
-        <v>641.52</v>
-      </c>
-      <c r="F39" s="53" t="n">
-        <v>6415.23</v>
+        <v>682.21</v>
+      </c>
+      <c r="F39" s="54">
+        <f>E9*D9 + sum(H9:I9)</f>
+        <v/>
       </c>
       <c r="G39" s="51" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H39" s="52" t="n">
-        <v>6.4</v>
-      </c>
+      <c r="H39" s="52" t="n"/>
       <c r="I39" s="52" t="n">
-        <v>38.83</v>
+        <v>24.05</v>
       </c>
       <c r="J39" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L39" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M39" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N39" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O39" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P39" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R39" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S39" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T39" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U39" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V39" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W39" s="47" t="n"/>
       <c r="X39" s="47" t="n"/>
       <c r="Y39" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z39" s="47" t="n"/>
       <c r="AA39" s="47" t="n"/>
       <c r="AB39" s="48" t="n"/>
       <c r="AC39" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD39" s="49" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="50" t="n">
-        <v>44228</v>
+        <v>45722</v>
       </c>
       <c r="B40" s="51" t="inlineStr">
         <is>
@@ -2751,17 +2689,17 @@
       </c>
       <c r="C40" s="51" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D40" s="52" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E40" s="53" t="n">
-        <v>276.62</v>
+        <v>641.52</v>
       </c>
       <c r="F40" s="53" t="n">
-        <v>13831.06</v>
+        <v>6415.23</v>
       </c>
       <c r="G40" s="51" t="inlineStr">
         <is>
@@ -2769,81 +2707,81 @@
         </is>
       </c>
       <c r="H40" s="52" t="n">
-        <v>13.93</v>
+        <v>6.4</v>
       </c>
       <c r="I40" s="52" t="n">
-        <v>82.51000000000001</v>
+        <v>38.83</v>
       </c>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L40" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M40" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N40" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O40" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P40" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R40" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S40" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T40" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U40" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V40" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W40" s="47" t="n"/>
       <c r="X40" s="47" t="n"/>
       <c r="Y40" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z40" s="47" t="n"/>
       <c r="AA40" s="47" t="n"/>
       <c r="AB40" s="48" t="n"/>
       <c r="AC40" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD40" s="49" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="50" t="n">
-        <v>43405</v>
+        <v>44228</v>
       </c>
       <c r="B41" s="51" t="inlineStr">
         <is>
@@ -2852,17 +2790,17 @@
       </c>
       <c r="C41" s="51" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D41" s="52" t="n">
         <v>50</v>
       </c>
       <c r="E41" s="53" t="n">
-        <v>183.08</v>
+        <v>276.62</v>
       </c>
       <c r="F41" s="53" t="n">
-        <v>9154.049999999999</v>
+        <v>13831.06</v>
       </c>
       <c r="G41" s="51" t="inlineStr">
         <is>
@@ -2870,109 +2808,194 @@
         </is>
       </c>
       <c r="H41" s="52" t="n">
-        <v>9.1</v>
+        <v>13.93</v>
       </c>
       <c r="I41" s="52" t="n">
-        <v>54.95</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K41" s="47" t="n"/>
-      <c r="L41" s="47">
+      <c r="K41" s="43">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="L41" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="M41" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <v/>
+      </c>
+      <c r="N41" s="45">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <v/>
+      </c>
+      <c r="O41" s="43">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="P41" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="Q41" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <v/>
+      </c>
+      <c r="R41" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="S41" s="46">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="T41" s="47">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="U41" s="47">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <v/>
+      </c>
+      <c r="V41" s="47">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="W41" s="47" t="n"/>
+      <c r="X41" s="47" t="n"/>
+      <c r="Y41" s="46">
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="Z41" s="47" t="n"/>
+      <c r="AA41" s="47" t="n"/>
+      <c r="AB41" s="48" t="n"/>
+      <c r="AC41" s="44">
+        <f>if(B11="DIV", F11,"")</f>
+        <v/>
+      </c>
+      <c r="AD41" s="49" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="50" t="n">
+        <v>43405</v>
+      </c>
+      <c r="B42" s="51" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C42" s="51" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D42" s="52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E42" s="53" t="n">
+        <v>183.08</v>
+      </c>
+      <c r="F42" s="53" t="n">
+        <v>9154.049999999999</v>
+      </c>
+      <c r="G42" s="51" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H42" s="52" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I42" s="52" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="J42" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K42" s="47" t="n"/>
+      <c r="L42" s="47">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
-      <c r="M41" s="55">
+      <c r="M42" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
-      <c r="N41" s="56">
+      <c r="N42" s="56">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
-      <c r="O41" s="55" t="n"/>
-      <c r="P41" s="47">
+      <c r="O42" s="55" t="n"/>
+      <c r="P42" s="47">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
-      <c r="Q41" s="55">
+      <c r="Q42" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
-      <c r="R41" s="55">
+      <c r="R42" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
-      <c r="S41" s="55" t="n"/>
-      <c r="T41" s="55">
+      <c r="S42" s="55" t="n"/>
+      <c r="T42" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (J12*D12)-(E12*D12)-(2*sum(H12:I12)), "")</f>
         <v/>
       </c>
-      <c r="U41" s="55">
+      <c r="U42" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
-      <c r="V41" s="55">
+      <c r="V42" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
-      <c r="W41" s="53" t="n">
+      <c r="W42" s="53" t="n">
         <v>276.62</v>
       </c>
-      <c r="X41" s="50" t="n">
+      <c r="X42" s="50" t="n">
         <v>44228</v>
       </c>
-      <c r="Y41" s="46">
+      <c r="Y42" s="46">
         <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
-      <c r="Z41" s="57">
+      <c r="Z42" s="57">
         <f>(1-Index!$F$2*2)*((W12*D12)-(E12*D12))</f>
         <v/>
       </c>
-      <c r="AA41" s="57">
+      <c r="AA42" s="57">
         <f>((E12*D12)+Z12)</f>
         <v/>
       </c>
-      <c r="AB41" s="58">
+      <c r="AB42" s="58">
         <f>D12</f>
         <v/>
       </c>
-      <c r="AC41" s="44">
+      <c r="AC42" s="44">
         <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
-      <c r="AD41" s="49" t="n"/>
-      <c r="AE41" s="59" t="n"/>
-      <c r="AF41" s="59" t="n"/>
-      <c r="AG41" s="59" t="n"/>
-      <c r="AH41" s="59" t="n"/>
-      <c r="AI41" s="59" t="n"/>
-      <c r="AJ41" s="59" t="n"/>
-      <c r="AK41" s="59" t="n"/>
-      <c r="AL41" s="59" t="n"/>
-      <c r="AM41" s="59" t="n"/>
-      <c r="AN41" s="59" t="n"/>
-      <c r="AO41" s="59" t="n"/>
-      <c r="AP41" s="59" t="n"/>
-    </row>
-    <row r="42">
-      <c r="E42" s="60" t="n"/>
-      <c r="F42" s="60" t="n"/>
-      <c r="G42" s="61" t="n"/>
-      <c r="J42" s="60" t="n"/>
-      <c r="K42" s="60" t="n"/>
-      <c r="L42" s="60" t="n"/>
-      <c r="M42" s="63" t="n"/>
-      <c r="W42" s="60" t="n"/>
-      <c r="X42" s="60" t="n"/>
-      <c r="Y42" s="60" t="n"/>
-      <c r="Z42" s="60" t="n"/>
-      <c r="AA42" s="60" t="n"/>
-      <c r="AB42" s="60" t="n"/>
-      <c r="AC42" s="60" t="n"/>
+      <c r="AD42" s="49" t="n"/>
+      <c r="AE42" s="59" t="n"/>
+      <c r="AF42" s="59" t="n"/>
+      <c r="AG42" s="59" t="n"/>
+      <c r="AH42" s="59" t="n"/>
+      <c r="AI42" s="59" t="n"/>
+      <c r="AJ42" s="59" t="n"/>
+      <c r="AK42" s="59" t="n"/>
+      <c r="AL42" s="59" t="n"/>
+      <c r="AM42" s="59" t="n"/>
+      <c r="AN42" s="59" t="n"/>
+      <c r="AO42" s="59" t="n"/>
+      <c r="AP42" s="59" t="n"/>
     </row>
     <row r="43">
       <c r="E43" s="60" t="n"/>
@@ -17941,6 +17964,7 @@
       <c r="J978" s="60" t="n"/>
       <c r="K978" s="60" t="n"/>
       <c r="L978" s="60" t="n"/>
+      <c r="M978" s="63" t="n"/>
       <c r="W978" s="60" t="n"/>
       <c r="X978" s="60" t="n"/>
       <c r="Y978" s="60" t="n"/>
@@ -18188,6 +18212,21 @@
       <c r="AA994" s="60" t="n"/>
       <c r="AB994" s="60" t="n"/>
       <c r="AC994" s="60" t="n"/>
+    </row>
+    <row r="995">
+      <c r="E995" s="60" t="n"/>
+      <c r="F995" s="60" t="n"/>
+      <c r="G995" s="61" t="n"/>
+      <c r="J995" s="60" t="n"/>
+      <c r="K995" s="60" t="n"/>
+      <c r="L995" s="60" t="n"/>
+      <c r="W995" s="60" t="n"/>
+      <c r="X995" s="60" t="n"/>
+      <c r="Y995" s="60" t="n"/>
+      <c r="Z995" s="60" t="n"/>
+      <c r="AA995" s="60" t="n"/>
+      <c r="AB995" s="60" t="n"/>
+      <c r="AC995" s="60" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$42"/>

--- a/dumps/Stocks/Tata Chemicals.xlsx
+++ b/dumps/Stocks/Tata Chemicals.xlsx
@@ -774,7 +774,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP995"/>
+  <dimension ref="A1:AP996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1124,11 +1124,11 @@
     </row>
     <row r="5">
       <c r="A5" s="96" t="n">
-        <v>46063</v>
+        <v>45974</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1140,21 +1140,18 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>719.15</v>
+        <v>845.75</v>
       </c>
       <c r="F5" t="n">
-        <v>3621.27</v>
+        <v>4249.9</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>3.59</v>
-      </c>
       <c r="I5" t="n">
-        <v>21.93</v>
+        <v>21.15</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1163,11 +1160,11 @@
     </row>
     <row r="6">
       <c r="A6" s="96" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -1179,21 +1176,21 @@
         <v>5</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>710</v>
+        <v>719.15</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3575.15</v>
+        <v>3621.27</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H6" s="0" t="n">
-        <v>3.55</v>
+        <v>3.59</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>21.6</v>
+        <v>21.93</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1201,8 +1198,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="95" t="n">
-        <v>46049</v>
+      <c r="A7" s="96" t="n">
+        <v>46062</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1215,24 +1212,28 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>713.7</v>
+        <v>710</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>5031.32</v>
+        <v>3575.15</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>30.42</v>
+        <v>21.6</v>
+      </c>
+      <c r="J7" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -1250,13 +1251,13 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>713.95</v>
+        <v>713.7</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2157.04</v>
+        <v>5031.32</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1264,15 +1265,15 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>2.14</v>
+        <v>5</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>13.05</v>
+        <v>30.42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="95" t="n">
-        <v>46027</v>
+        <v>46049</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1285,13 +1286,13 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>755.25</v>
+        <v>713.95</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3803.04</v>
+        <v>2157.04</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1299,19 +1300,19 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>3.77</v>
+        <v>2.14</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>23.02</v>
+        <v>13.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="95" t="n">
-        <v>46017</v>
+        <v>46027</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1323,10 +1324,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>768.05</v>
+        <v>755.25</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3867.5</v>
+        <v>3803.04</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1334,19 +1335,19 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3.85</v>
+        <v>3.77</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>23.4</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="95" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -1358,10 +1359,10 @@
         <v>5</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>770.85</v>
+        <v>768.05</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3881.52</v>
+        <v>3867.5</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1369,15 +1370,15 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>3.83</v>
+        <v>3.85</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>23.44</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="95" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1390,13 +1391,13 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>774.45</v>
+        <v>770.85</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3119.72</v>
+        <v>3881.52</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1404,10 +1405,10 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>3.09</v>
+        <v>3.83</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>18.83</v>
+        <v>23.44</v>
       </c>
     </row>
     <row r="13">
@@ -1425,13 +1426,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>774.45</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>779.9299999999999</v>
+        <v>3119.72</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1439,19 +1440,19 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.77</v>
+        <v>3.09</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>4.71</v>
+        <v>18.83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="95" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1460,13 +1461,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>747</v>
+        <v>774.45</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3761.52</v>
+        <v>779.9299999999999</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1474,19 +1475,19 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>3.75</v>
+        <v>0.77</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>22.77</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="95" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -1495,13 +1496,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>764.2</v>
+        <v>747</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>769.59</v>
+        <v>3761.52</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1509,10 +1510,10 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.76</v>
+        <v>3.75</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>4.63</v>
+        <v>22.77</v>
       </c>
     </row>
     <row r="16">
@@ -1530,13 +1531,13 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>764.25</v>
+        <v>764.2</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3078.68</v>
+        <v>769.59</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1544,15 +1545,15 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>3.05</v>
+        <v>0.76</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>18.63</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="95" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1565,13 +1566,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>756</v>
+        <v>764.25</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>761.35</v>
+        <v>3078.68</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1579,10 +1580,10 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.76</v>
+        <v>3.05</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>4.59</v>
+        <v>18.63</v>
       </c>
     </row>
     <row r="18">
@@ -1600,13 +1601,13 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>756</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3045.44</v>
+        <v>761.35</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1614,15 +1615,15 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>3.03</v>
+        <v>0.76</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>18.41</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="95" t="n">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -1635,13 +1636,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>755.25</v>
+        <v>756</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>3803.04</v>
+        <v>3045.44</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1649,15 +1650,15 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>3.77</v>
+        <v>3.03</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>23.02</v>
+        <v>18.41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="95" t="n">
-        <v>45993</v>
+        <v>46000</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1670,13 +1671,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>790.8</v>
+        <v>755.25</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>796.41</v>
+        <v>3803.04</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1684,10 +1685,10 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.8</v>
+        <v>3.77</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>4.81</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="21">
@@ -1705,13 +1706,13 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>790.8</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>3185.6</v>
+        <v>796.41</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1719,15 +1720,15 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>3.18</v>
+        <v>0.8</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>19.22</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="95" t="n">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
@@ -1740,13 +1741,13 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>804</v>
+        <v>790.8</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>4048.49</v>
+        <v>3185.6</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1754,19 +1755,19 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>4.01</v>
+        <v>3.18</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>24.48</v>
+        <v>19.22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="95" t="n">
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -1778,10 +1779,10 @@
         <v>5</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>812.9</v>
+        <v>804</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>4093.29</v>
+        <v>4048.49</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1789,19 +1790,19 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>4.04</v>
+        <v>4.01</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>24.75</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="95" t="n">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
@@ -1813,10 +1814,10 @@
         <v>5</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>812.45</v>
+        <v>812.9</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>4091.01</v>
+        <v>4093.29</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1824,15 +1825,15 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>24.7</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="95" t="n">
-        <v>45979</v>
+        <v>45982</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
@@ -1845,13 +1846,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>830.05</v>
+        <v>812.45</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>835.92</v>
+        <v>4091.01</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1859,10 +1860,10 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.83</v>
+        <v>4.06</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>5.04</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="26">
@@ -1880,13 +1881,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>830.1</v>
+        <v>830.05</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>3343.93</v>
+        <v>835.92</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1894,19 +1895,19 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>3.33</v>
+        <v>0.83</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>20.2</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="95" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
@@ -1915,13 +1916,13 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>839</v>
+        <v>830.1</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>4224.8</v>
+        <v>3343.93</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1929,19 +1930,19 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>4.22</v>
+        <v>3.33</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>25.58</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="95" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C28" s="0" t="inlineStr">
@@ -1953,10 +1954,10 @@
         <v>5</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>837.05</v>
+        <v>839</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>4214.94</v>
+        <v>4224.8</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1964,15 +1965,15 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>4.2</v>
+        <v>4.22</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>25.49</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="95" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
@@ -1985,13 +1986,13 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>845.75</v>
+        <v>837.05</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>2555.24</v>
+        <v>4214.94</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -1999,10 +2000,10 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>2.53</v>
+        <v>4.2</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>15.46</v>
+        <v>25.49</v>
       </c>
     </row>
     <row r="30">
@@ -2020,13 +2021,13 @@
         </is>
       </c>
       <c r="D30" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>845.75</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>1703.47</v>
+        <v>2555.24</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
@@ -2034,15 +2035,15 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>1.68</v>
+        <v>2.53</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>10.29</v>
+        <v>15.46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="95" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
@@ -2055,13 +2056,13 @@
         </is>
       </c>
       <c r="D31" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>842.15</v>
+        <v>845.75</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>4240.56</v>
+        <v>1703.47</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
@@ -2069,15 +2070,15 @@
         </is>
       </c>
       <c r="H31" s="0" t="n">
-        <v>4.18</v>
+        <v>1.68</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>25.63</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="95" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
@@ -2093,10 +2094,10 @@
         <v>5</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>844.15</v>
+        <v>842.15</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>4250.61</v>
+        <v>4240.56</v>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
@@ -2104,19 +2105,19 @@
         </is>
       </c>
       <c r="H32" s="0" t="n">
-        <v>4.2</v>
+        <v>4.18</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>25.66</v>
+        <v>25.63</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="95" t="n">
-        <v>45961</v>
+        <v>45971</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C33" s="0" t="inlineStr">
@@ -2128,10 +2129,10 @@
         <v>5</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>892.95</v>
+        <v>844.15</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>4496.39</v>
+        <v>4250.61</v>
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
@@ -2139,15 +2140,15 @@
         </is>
       </c>
       <c r="H33" s="0" t="n">
-        <v>4.45</v>
+        <v>4.2</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>27.19</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="95" t="n">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
@@ -2163,10 +2164,10 @@
         <v>5</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>894.2</v>
+        <v>892.95</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>4502.73</v>
+        <v>4496.39</v>
       </c>
       <c r="G34" s="0" t="inlineStr">
         <is>
@@ -2174,113 +2175,50 @@
         </is>
       </c>
       <c r="H34" s="0" t="n">
-        <v>4.48</v>
+        <v>4.45</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>27.25</v>
+        <v>27.19</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B35" s="39" t="inlineStr">
+      <c r="A35" s="95" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
-      <c r="C35" s="39" t="inlineStr">
+      <c r="C35" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D35" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E35" s="41" t="n">
-        <v>401.57</v>
-      </c>
-      <c r="F35" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G35" s="39" t="inlineStr">
+      <c r="D35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>894.2</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>4502.73</v>
+      </c>
+      <c r="G35" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H35" s="40" t="n"/>
-      <c r="I35" s="40" t="n"/>
-      <c r="J35" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K35" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L35" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M35" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N35" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O35" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P35" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q35" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R35" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S35" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T35" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U35" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V35" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W35" s="47" t="n"/>
-      <c r="X35" s="47" t="n"/>
-      <c r="Y35" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z35" s="47" t="n"/>
-      <c r="AA35" s="47" t="n"/>
-      <c r="AB35" s="48" t="n"/>
-      <c r="AC35" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD35" s="49" t="n"/>
+      <c r="H35" s="0" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>27.25</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B36" s="39" t="inlineStr">
         <is>
@@ -2293,13 +2231,13 @@
         </is>
       </c>
       <c r="D36" s="40" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E36" s="41" t="n">
-        <v>400.62</v>
+        <v>401.57</v>
       </c>
       <c r="F36" s="41">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G36" s="39" t="inlineStr">
@@ -2314,75 +2252,75 @@
         <v/>
       </c>
       <c r="K36" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L36" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M36" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N36" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O36" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P36" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R36" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S36" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T36" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U36" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V36" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W36" s="47" t="n"/>
       <c r="X36" s="47" t="n"/>
       <c r="Y36" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z36" s="47" t="n"/>
       <c r="AA36" s="47" t="n"/>
       <c r="AB36" s="48" t="n"/>
       <c r="AC36" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD36" s="49" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="38" t="n">
-        <v>45812</v>
+        <v>45947</v>
       </c>
       <c r="B37" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C37" s="39" t="inlineStr">
@@ -2394,96 +2332,93 @@
         <v>20</v>
       </c>
       <c r="E37" s="41" t="n">
-        <v>6</v>
-      </c>
-      <c r="F37" s="41" t="n">
-        <v>120</v>
+        <v>400.62</v>
+      </c>
+      <c r="F37" s="41">
+        <f>D6*E6</f>
+        <v/>
       </c>
       <c r="G37" s="39" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.6.0000/- per share on Ex-Date: 04-JUN-2025</t>
+          <t>~</t>
         </is>
       </c>
-      <c r="H37" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="40" t="n">
-        <v>0</v>
-      </c>
+      <c r="H37" s="40" t="n"/>
+      <c r="I37" s="40" t="n"/>
       <c r="J37" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L37" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M37" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N37" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O37" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P37" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R37" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S37" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T37" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U37" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V37" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W37" s="47" t="n"/>
       <c r="X37" s="47" t="n"/>
       <c r="Y37" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z37" s="47" t="n"/>
       <c r="AA37" s="47" t="n"/>
       <c r="AB37" s="48" t="n"/>
       <c r="AC37" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD37" s="49" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="38" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B38" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C38" s="39" t="inlineStr">
@@ -2492,195 +2427,196 @@
         </is>
       </c>
       <c r="D38" s="40" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E38" s="41" t="n">
-        <v>716.9</v>
+        <v>6</v>
       </c>
       <c r="F38" s="41" t="n">
-        <v>3584.48</v>
+        <v>120</v>
       </c>
       <c r="G38" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.6.0000/- per share on Ex-Date: 04-JUN-2025</t>
         </is>
       </c>
       <c r="H38" s="40" t="n">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="I38" s="40" t="n">
-        <v>21.67</v>
+        <v>0</v>
       </c>
       <c r="J38" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K38" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L38" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M38" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N38" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O38" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P38" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R38" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S38" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T38" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U38" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V38" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W38" s="47" t="n"/>
       <c r="X38" s="47" t="n"/>
       <c r="Y38" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z38" s="47" t="n"/>
       <c r="AA38" s="47" t="n"/>
       <c r="AB38" s="48" t="n"/>
       <c r="AC38" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD38" s="49" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="50" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B39" s="51" t="inlineStr">
+      <c r="A39" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B39" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C39" s="51" t="inlineStr">
+      <c r="C39" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D39" s="52" t="n">
+      <c r="D39" s="40" t="n">
         <v>5</v>
       </c>
-      <c r="E39" s="53" t="n">
-        <v>682.21</v>
-      </c>
-      <c r="F39" s="54">
-        <f>E9*D9 + sum(H9:I9)</f>
-        <v/>
-      </c>
-      <c r="G39" s="51" t="inlineStr">
+      <c r="E39" s="41" t="n">
+        <v>716.9</v>
+      </c>
+      <c r="F39" s="41" t="n">
+        <v>3584.48</v>
+      </c>
+      <c r="G39" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H39" s="52" t="n"/>
-      <c r="I39" s="52" t="n">
-        <v>24.05</v>
+      <c r="H39" s="40" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="I39" s="40" t="n">
+        <v>21.67</v>
       </c>
       <c r="J39" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L39" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M39" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N39" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O39" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P39" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R39" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S39" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T39" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U39" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V39" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W39" s="47" t="n"/>
       <c r="X39" s="47" t="n"/>
       <c r="Y39" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z39" s="47" t="n"/>
       <c r="AA39" s="47" t="n"/>
       <c r="AB39" s="48" t="n"/>
       <c r="AC39" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD39" s="49" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="50" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B40" s="51" t="inlineStr">
         <is>
@@ -2693,95 +2629,94 @@
         </is>
       </c>
       <c r="D40" s="52" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E40" s="53" t="n">
-        <v>641.52</v>
-      </c>
-      <c r="F40" s="53" t="n">
-        <v>6415.23</v>
+        <v>682.21</v>
+      </c>
+      <c r="F40" s="54">
+        <f>E9*D9 + sum(H9:I9)</f>
+        <v/>
       </c>
       <c r="G40" s="51" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H40" s="52" t="n">
-        <v>6.4</v>
-      </c>
+      <c r="H40" s="52" t="n"/>
       <c r="I40" s="52" t="n">
-        <v>38.83</v>
+        <v>24.05</v>
       </c>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L40" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M40" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N40" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O40" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P40" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R40" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S40" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T40" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U40" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V40" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W40" s="47" t="n"/>
       <c r="X40" s="47" t="n"/>
       <c r="Y40" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z40" s="47" t="n"/>
       <c r="AA40" s="47" t="n"/>
       <c r="AB40" s="48" t="n"/>
       <c r="AC40" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD40" s="49" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="50" t="n">
-        <v>44228</v>
+        <v>45722</v>
       </c>
       <c r="B41" s="51" t="inlineStr">
         <is>
@@ -2790,17 +2725,17 @@
       </c>
       <c r="C41" s="51" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D41" s="52" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E41" s="53" t="n">
-        <v>276.62</v>
+        <v>641.52</v>
       </c>
       <c r="F41" s="53" t="n">
-        <v>13831.06</v>
+        <v>6415.23</v>
       </c>
       <c r="G41" s="51" t="inlineStr">
         <is>
@@ -2808,81 +2743,81 @@
         </is>
       </c>
       <c r="H41" s="52" t="n">
-        <v>13.93</v>
+        <v>6.4</v>
       </c>
       <c r="I41" s="52" t="n">
-        <v>82.51000000000001</v>
+        <v>38.83</v>
       </c>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L41" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M41" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N41" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O41" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P41" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R41" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S41" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T41" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U41" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V41" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W41" s="47" t="n"/>
       <c r="X41" s="47" t="n"/>
       <c r="Y41" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z41" s="47" t="n"/>
       <c r="AA41" s="47" t="n"/>
       <c r="AB41" s="48" t="n"/>
       <c r="AC41" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD41" s="49" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="50" t="n">
-        <v>43405</v>
+        <v>44228</v>
       </c>
       <c r="B42" s="51" t="inlineStr">
         <is>
@@ -2891,17 +2826,17 @@
       </c>
       <c r="C42" s="51" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D42" s="52" t="n">
         <v>50</v>
       </c>
       <c r="E42" s="53" t="n">
-        <v>183.08</v>
+        <v>276.62</v>
       </c>
       <c r="F42" s="53" t="n">
-        <v>9154.049999999999</v>
+        <v>13831.06</v>
       </c>
       <c r="G42" s="51" t="inlineStr">
         <is>
@@ -2909,109 +2844,194 @@
         </is>
       </c>
       <c r="H42" s="52" t="n">
-        <v>9.1</v>
+        <v>13.93</v>
       </c>
       <c r="I42" s="52" t="n">
-        <v>54.95</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="J42" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K42" s="47" t="n"/>
-      <c r="L42" s="47">
+      <c r="K42" s="43">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="L42" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="M42" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <v/>
+      </c>
+      <c r="N42" s="45">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <v/>
+      </c>
+      <c r="O42" s="43">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="P42" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="Q42" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <v/>
+      </c>
+      <c r="R42" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="S42" s="46">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="T42" s="47">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="U42" s="47">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <v/>
+      </c>
+      <c r="V42" s="47">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="W42" s="47" t="n"/>
+      <c r="X42" s="47" t="n"/>
+      <c r="Y42" s="46">
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="Z42" s="47" t="n"/>
+      <c r="AA42" s="47" t="n"/>
+      <c r="AB42" s="48" t="n"/>
+      <c r="AC42" s="44">
+        <f>if(B11="DIV", F11,"")</f>
+        <v/>
+      </c>
+      <c r="AD42" s="49" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="50" t="n">
+        <v>43405</v>
+      </c>
+      <c r="B43" s="51" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C43" s="51" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D43" s="52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E43" s="53" t="n">
+        <v>183.08</v>
+      </c>
+      <c r="F43" s="53" t="n">
+        <v>9154.049999999999</v>
+      </c>
+      <c r="G43" s="51" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H43" s="52" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I43" s="52" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="J43" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K43" s="47" t="n"/>
+      <c r="L43" s="47">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
-      <c r="M42" s="55">
+      <c r="M43" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
-      <c r="N42" s="56">
+      <c r="N43" s="56">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
-      <c r="O42" s="55" t="n"/>
-      <c r="P42" s="47">
+      <c r="O43" s="55" t="n"/>
+      <c r="P43" s="47">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
-      <c r="Q42" s="55">
+      <c r="Q43" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
-      <c r="R42" s="55">
+      <c r="R43" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
-      <c r="S42" s="55" t="n"/>
-      <c r="T42" s="55">
+      <c r="S43" s="55" t="n"/>
+      <c r="T43" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (J12*D12)-(E12*D12)-(2*sum(H12:I12)), "")</f>
         <v/>
       </c>
-      <c r="U42" s="55">
+      <c r="U43" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
-      <c r="V42" s="55">
+      <c r="V43" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
-      <c r="W42" s="53" t="n">
+      <c r="W43" s="53" t="n">
         <v>276.62</v>
       </c>
-      <c r="X42" s="50" t="n">
+      <c r="X43" s="50" t="n">
         <v>44228</v>
       </c>
-      <c r="Y42" s="46">
+      <c r="Y43" s="46">
         <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
-      <c r="Z42" s="57">
+      <c r="Z43" s="57">
         <f>(1-Index!$F$2*2)*((W12*D12)-(E12*D12))</f>
         <v/>
       </c>
-      <c r="AA42" s="57">
+      <c r="AA43" s="57">
         <f>((E12*D12)+Z12)</f>
         <v/>
       </c>
-      <c r="AB42" s="58">
+      <c r="AB43" s="58">
         <f>D12</f>
         <v/>
       </c>
-      <c r="AC42" s="44">
+      <c r="AC43" s="44">
         <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
-      <c r="AD42" s="49" t="n"/>
-      <c r="AE42" s="59" t="n"/>
-      <c r="AF42" s="59" t="n"/>
-      <c r="AG42" s="59" t="n"/>
-      <c r="AH42" s="59" t="n"/>
-      <c r="AI42" s="59" t="n"/>
-      <c r="AJ42" s="59" t="n"/>
-      <c r="AK42" s="59" t="n"/>
-      <c r="AL42" s="59" t="n"/>
-      <c r="AM42" s="59" t="n"/>
-      <c r="AN42" s="59" t="n"/>
-      <c r="AO42" s="59" t="n"/>
-      <c r="AP42" s="59" t="n"/>
-    </row>
-    <row r="43">
-      <c r="E43" s="60" t="n"/>
-      <c r="F43" s="60" t="n"/>
-      <c r="G43" s="61" t="n"/>
-      <c r="J43" s="60" t="n"/>
-      <c r="K43" s="60" t="n"/>
-      <c r="L43" s="60" t="n"/>
-      <c r="M43" s="63" t="n"/>
-      <c r="W43" s="60" t="n"/>
-      <c r="X43" s="60" t="n"/>
-      <c r="Y43" s="60" t="n"/>
-      <c r="Z43" s="60" t="n"/>
-      <c r="AA43" s="60" t="n"/>
-      <c r="AB43" s="60" t="n"/>
-      <c r="AC43" s="60" t="n"/>
+      <c r="AD43" s="49" t="n"/>
+      <c r="AE43" s="59" t="n"/>
+      <c r="AF43" s="59" t="n"/>
+      <c r="AG43" s="59" t="n"/>
+      <c r="AH43" s="59" t="n"/>
+      <c r="AI43" s="59" t="n"/>
+      <c r="AJ43" s="59" t="n"/>
+      <c r="AK43" s="59" t="n"/>
+      <c r="AL43" s="59" t="n"/>
+      <c r="AM43" s="59" t="n"/>
+      <c r="AN43" s="59" t="n"/>
+      <c r="AO43" s="59" t="n"/>
+      <c r="AP43" s="59" t="n"/>
     </row>
     <row r="44">
       <c r="E44" s="60" t="n"/>
@@ -17980,6 +18000,7 @@
       <c r="J979" s="60" t="n"/>
       <c r="K979" s="60" t="n"/>
       <c r="L979" s="60" t="n"/>
+      <c r="M979" s="63" t="n"/>
       <c r="W979" s="60" t="n"/>
       <c r="X979" s="60" t="n"/>
       <c r="Y979" s="60" t="n"/>
@@ -18227,6 +18248,21 @@
       <c r="AA995" s="60" t="n"/>
       <c r="AB995" s="60" t="n"/>
       <c r="AC995" s="60" t="n"/>
+    </row>
+    <row r="996">
+      <c r="E996" s="60" t="n"/>
+      <c r="F996" s="60" t="n"/>
+      <c r="G996" s="61" t="n"/>
+      <c r="J996" s="60" t="n"/>
+      <c r="K996" s="60" t="n"/>
+      <c r="L996" s="60" t="n"/>
+      <c r="W996" s="60" t="n"/>
+      <c r="X996" s="60" t="n"/>
+      <c r="Y996" s="60" t="n"/>
+      <c r="Z996" s="60" t="n"/>
+      <c r="AA996" s="60" t="n"/>
+      <c r="AB996" s="60" t="n"/>
+      <c r="AC996" s="60" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$42"/>

--- a/dumps/Stocks/Tata Chemicals.xlsx
+++ b/dumps/Stocks/Tata Chemicals.xlsx
@@ -774,7 +774,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP996"/>
+  <dimension ref="A1:AP1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="5">
       <c r="A5" s="96" t="n">
-        <v>45974</v>
+        <v>46059</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1140,18 +1140,18 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>845.75</v>
+        <v>710.65</v>
       </c>
       <c r="F5" t="n">
-        <v>4249.9</v>
+        <v>3571</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252608142538</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>21.15</v>
+        <v>17.75</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1160,11 +1160,11 @@
     </row>
     <row r="6">
       <c r="A6" s="96" t="n">
-        <v>46063</v>
+        <v>46049</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -1173,24 +1173,21 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>719.15</v>
+        <v>713.775</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3621.27</v>
+        <v>7173.45</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>3.59</v>
-      </c>
       <c r="I6" s="0" t="n">
-        <v>21.93</v>
+        <v>35.7</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1199,7 +1196,7 @@
     </row>
     <row r="7">
       <c r="A7" s="96" t="n">
-        <v>46062</v>
+        <v>46014</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1215,21 +1212,18 @@
         <v>5</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>710</v>
+        <v>774.45</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3575.15</v>
+        <v>3891.6</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252609701573</t>
         </is>
       </c>
-      <c r="H7" s="0" t="n">
-        <v>3.55</v>
-      </c>
       <c r="I7" s="0" t="n">
-        <v>21.6</v>
+        <v>19.35</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1237,8 +1231,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="95" t="n">
-        <v>46049</v>
+      <c r="A8" s="96" t="n">
+        <v>46007</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1251,29 +1245,30 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>713.7</v>
+        <v>764.24</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>5031.32</v>
+        <v>3840.3</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
-      <c r="H8" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="I8" s="0" t="n">
-        <v>30.42</v>
+        <v>19.1</v>
+      </c>
+      <c r="J8" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="95" t="n">
-        <v>46049</v>
+      <c r="A9" s="96" t="n">
+        <v>46002</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1286,29 +1281,30 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>713.95</v>
+        <v>756</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2157.04</v>
+        <v>3798.9</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252609267726</t>
         </is>
       </c>
-      <c r="H9" s="0" t="n">
-        <v>2.14</v>
-      </c>
       <c r="I9" s="0" t="n">
-        <v>13.05</v>
+        <v>18.9</v>
+      </c>
+      <c r="J9" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="95" t="n">
-        <v>46027</v>
+      <c r="A10" s="96" t="n">
+        <v>45993</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1324,30 +1320,31 @@
         <v>5</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>755.25</v>
+        <v>790.8</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3803.04</v>
+        <v>3973.75</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252608877522</t>
         </is>
       </c>
-      <c r="H10" s="0" t="n">
-        <v>3.77</v>
-      </c>
       <c r="I10" s="0" t="n">
-        <v>23.02</v>
+        <v>19.75</v>
+      </c>
+      <c r="J10" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="95" t="n">
-        <v>46017</v>
+      <c r="A11" s="96" t="n">
+        <v>45979</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -1359,26 +1356,27 @@
         <v>5</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>768.05</v>
+        <v>830.09</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3867.5</v>
+        <v>4171.2</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252608322011</t>
         </is>
       </c>
-      <c r="H11" s="0" t="n">
-        <v>3.85</v>
-      </c>
       <c r="I11" s="0" t="n">
-        <v>23.4</v>
+        <v>20.75</v>
+      </c>
+      <c r="J11" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="95" t="n">
-        <v>46015</v>
+      <c r="A12" s="96" t="n">
+        <v>45974</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1394,30 +1392,31 @@
         <v>5</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>770.85</v>
+        <v>845.75</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3881.52</v>
+        <v>4249.9</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
-      <c r="H12" s="0" t="n">
-        <v>3.83</v>
-      </c>
       <c r="I12" s="0" t="n">
-        <v>23.44</v>
+        <v>21.15</v>
+      </c>
+      <c r="J12" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="95" t="n">
-        <v>46014</v>
+      <c r="A13" s="96" t="n">
+        <v>46063</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1426,29 +1425,33 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>774.45</v>
+        <v>719.15</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3119.72</v>
+        <v>3621.27</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>3.09</v>
+        <v>3.59</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>18.83</v>
+        <v>21.93</v>
+      </c>
+      <c r="J13" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="95" t="n">
-        <v>46014</v>
+      <c r="A14" s="96" t="n">
+        <v>46062</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1461,33 +1464,37 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>774.45</v>
+        <v>710</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>779.9299999999999</v>
+        <v>3575.15</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.77</v>
+        <v>3.55</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>4.71</v>
+        <v>21.6</v>
+      </c>
+      <c r="J14" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="95" t="n">
-        <v>46009</v>
+        <v>46049</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -1496,13 +1503,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>747</v>
+        <v>713.7</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3761.52</v>
+        <v>5031.32</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1510,15 +1517,15 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>22.77</v>
+        <v>30.42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="95" t="n">
-        <v>46007</v>
+        <v>46049</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1531,13 +1538,13 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>764.2</v>
+        <v>713.95</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>769.59</v>
+        <v>2157.04</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1545,15 +1552,15 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.76</v>
+        <v>2.14</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>4.63</v>
+        <v>13.05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="95" t="n">
-        <v>46007</v>
+        <v>46027</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1566,13 +1573,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>764.25</v>
+        <v>755.25</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3078.68</v>
+        <v>3803.04</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1580,19 +1587,19 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>3.05</v>
+        <v>3.77</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>18.63</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="95" t="n">
-        <v>46002</v>
+        <v>46017</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -1601,13 +1608,13 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>756</v>
+        <v>768.05</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>761.35</v>
+        <v>3867.5</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1615,15 +1622,15 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.76</v>
+        <v>3.85</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>4.59</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="95" t="n">
-        <v>46002</v>
+        <v>46015</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -1636,13 +1643,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>756</v>
+        <v>770.85</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>3045.44</v>
+        <v>3881.52</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1650,15 +1657,15 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>3.03</v>
+        <v>3.83</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>18.41</v>
+        <v>23.44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="95" t="n">
-        <v>46000</v>
+        <v>46014</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1671,13 +1678,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>755.25</v>
+        <v>774.45</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>3803.04</v>
+        <v>3119.72</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1685,15 +1692,15 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>3.77</v>
+        <v>3.09</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>23.02</v>
+        <v>18.83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="95" t="n">
-        <v>45993</v>
+        <v>46014</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -1709,10 +1716,10 @@
         <v>1</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>790.8</v>
+        <v>774.45</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>796.41</v>
+        <v>779.9299999999999</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1720,19 +1727,19 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>4.81</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="95" t="n">
-        <v>45993</v>
+        <v>46009</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -1741,13 +1748,13 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>790.8</v>
+        <v>747</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>3185.6</v>
+        <v>3761.52</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1755,15 +1762,15 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>3.18</v>
+        <v>3.75</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>19.22</v>
+        <v>22.77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="95" t="n">
-        <v>45989</v>
+        <v>46007</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
@@ -1776,13 +1783,13 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>804</v>
+        <v>764.2</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>4048.49</v>
+        <v>769.59</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1790,19 +1797,19 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>4.01</v>
+        <v>0.76</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>24.48</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="95" t="n">
-        <v>45988</v>
+        <v>46007</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
@@ -1811,13 +1818,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>812.9</v>
+        <v>764.25</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>4093.29</v>
+        <v>3078.68</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1825,15 +1832,15 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>4.04</v>
+        <v>3.05</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>24.75</v>
+        <v>18.63</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="95" t="n">
-        <v>45982</v>
+        <v>46002</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
@@ -1846,13 +1853,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>812.45</v>
+        <v>756</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>4091.01</v>
+        <v>761.35</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1860,15 +1867,15 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>4.06</v>
+        <v>0.76</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>24.7</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="95" t="n">
-        <v>45979</v>
+        <v>46002</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
@@ -1881,13 +1888,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>830.05</v>
+        <v>756</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>835.92</v>
+        <v>3045.44</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1895,15 +1902,15 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.83</v>
+        <v>3.03</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>5.04</v>
+        <v>18.41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="95" t="n">
-        <v>45979</v>
+        <v>46000</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
@@ -1916,13 +1923,13 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>830.1</v>
+        <v>755.25</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>3343.93</v>
+        <v>3803.04</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1930,19 +1937,19 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>3.33</v>
+        <v>3.77</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>20.2</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="95" t="n">
-        <v>45978</v>
+        <v>45993</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C28" s="0" t="inlineStr">
@@ -1951,13 +1958,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>839</v>
+        <v>790.8</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>4224.8</v>
+        <v>796.41</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1965,15 +1972,15 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>4.22</v>
+        <v>0.8</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>25.58</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="95" t="n">
-        <v>45975</v>
+        <v>45993</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
@@ -1986,13 +1993,13 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>837.05</v>
+        <v>790.8</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>4214.94</v>
+        <v>3185.6</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -2000,15 +2007,15 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>4.2</v>
+        <v>3.18</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>25.49</v>
+        <v>19.22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="95" t="n">
-        <v>45974</v>
+        <v>45989</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
@@ -2021,13 +2028,13 @@
         </is>
       </c>
       <c r="D30" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>845.75</v>
+        <v>804</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>2555.24</v>
+        <v>4048.49</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
@@ -2035,19 +2042,19 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>2.53</v>
+        <v>4.01</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>15.46</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="95" t="n">
-        <v>45974</v>
+        <v>45988</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C31" s="0" t="inlineStr">
@@ -2056,13 +2063,13 @@
         </is>
       </c>
       <c r="D31" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>845.75</v>
+        <v>812.9</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1703.47</v>
+        <v>4093.29</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
@@ -2070,15 +2077,15 @@
         </is>
       </c>
       <c r="H31" s="0" t="n">
-        <v>1.68</v>
+        <v>4.04</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>10.29</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="95" t="n">
-        <v>45972</v>
+        <v>45982</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
@@ -2094,10 +2101,10 @@
         <v>5</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>842.15</v>
+        <v>812.45</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>4240.56</v>
+        <v>4091.01</v>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
@@ -2105,15 +2112,15 @@
         </is>
       </c>
       <c r="H32" s="0" t="n">
-        <v>4.18</v>
+        <v>4.06</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>25.63</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="95" t="n">
-        <v>45971</v>
+        <v>45979</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
@@ -2126,13 +2133,13 @@
         </is>
       </c>
       <c r="D33" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>844.15</v>
+        <v>830.05</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>4250.61</v>
+        <v>835.92</v>
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
@@ -2140,19 +2147,19 @@
         </is>
       </c>
       <c r="H33" s="0" t="n">
-        <v>4.2</v>
+        <v>0.83</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>25.66</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="95" t="n">
-        <v>45961</v>
+        <v>45979</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C34" s="0" t="inlineStr">
@@ -2161,13 +2168,13 @@
         </is>
       </c>
       <c r="D34" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>892.95</v>
+        <v>830.1</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>4496.39</v>
+        <v>3343.93</v>
       </c>
       <c r="G34" s="0" t="inlineStr">
         <is>
@@ -2175,15 +2182,15 @@
         </is>
       </c>
       <c r="H34" s="0" t="n">
-        <v>4.45</v>
+        <v>3.33</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>27.19</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="95" t="n">
-        <v>45957</v>
+        <v>45978</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
@@ -2199,10 +2206,10 @@
         <v>5</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>894.2</v>
+        <v>839</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>4502.73</v>
+        <v>4224.8</v>
       </c>
       <c r="G35" s="0" t="inlineStr">
         <is>
@@ -2210,940 +2217,1073 @@
         </is>
       </c>
       <c r="H35" s="0" t="n">
-        <v>4.48</v>
+        <v>4.22</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>27.25</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B36" s="39" t="inlineStr">
+      <c r="A36" s="95" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C36" s="39" t="inlineStr">
+      <c r="C36" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D36" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E36" s="41" t="n">
-        <v>401.57</v>
-      </c>
-      <c r="F36" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G36" s="39" t="inlineStr">
+      <c r="D36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>837.05</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>4214.94</v>
+      </c>
+      <c r="G36" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H36" s="40" t="n"/>
-      <c r="I36" s="40" t="n"/>
-      <c r="J36" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K36" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L36" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M36" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N36" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O36" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P36" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q36" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R36" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S36" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T36" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U36" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V36" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W36" s="47" t="n"/>
-      <c r="X36" s="47" t="n"/>
-      <c r="Y36" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z36" s="47" t="n"/>
-      <c r="AA36" s="47" t="n"/>
-      <c r="AB36" s="48" t="n"/>
-      <c r="AC36" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD36" s="49" t="n"/>
+      <c r="H36" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="38" t="n">
-        <v>45947</v>
-      </c>
-      <c r="B37" s="39" t="inlineStr">
+      <c r="A37" s="95" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C37" s="39" t="inlineStr">
+      <c r="C37" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D37" s="40" t="n">
-        <v>20</v>
-      </c>
-      <c r="E37" s="41" t="n">
-        <v>400.62</v>
-      </c>
-      <c r="F37" s="41">
-        <f>D6*E6</f>
-        <v/>
-      </c>
-      <c r="G37" s="39" t="inlineStr">
+      <c r="D37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>845.75</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>2555.24</v>
+      </c>
+      <c r="G37" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H37" s="40" t="n"/>
-      <c r="I37" s="40" t="n"/>
-      <c r="J37" s="42">
+      <c r="H37" s="0" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>15.46</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="95" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>845.75</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>1703.47</v>
+      </c>
+      <c r="G38" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="95" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>842.15</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>4240.56</v>
+      </c>
+      <c r="G39" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>25.63</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="95" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>844.15</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>4250.61</v>
+      </c>
+      <c r="G40" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>25.66</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="95" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>892.95</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>4496.39</v>
+      </c>
+      <c r="G41" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>27.19</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="95" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>894.2</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>4502.73</v>
+      </c>
+      <c r="G42" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="38" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B43" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C43" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D43" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E43" s="41" t="n">
+        <v>401.57</v>
+      </c>
+      <c r="F43" s="41">
+        <f>D5*E5</f>
+        <v/>
+      </c>
+      <c r="G43" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H43" s="40" t="n"/>
+      <c r="I43" s="40" t="n"/>
+      <c r="J43" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K37" s="43">
+      <c r="K43" s="43">
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
+        <v/>
+      </c>
+      <c r="L43" s="44">
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
+        <v/>
+      </c>
+      <c r="M43" s="44">
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
+        <v/>
+      </c>
+      <c r="N43" s="45">
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
+        <v/>
+      </c>
+      <c r="O43" s="43">
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
+        <v/>
+      </c>
+      <c r="P43" s="44">
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
+        <v/>
+      </c>
+      <c r="Q43" s="44">
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
+        <v/>
+      </c>
+      <c r="R43" s="44">
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
+        <v/>
+      </c>
+      <c r="S43" s="46">
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
+        <v/>
+      </c>
+      <c r="T43" s="47">
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
+        <v/>
+      </c>
+      <c r="U43" s="47">
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
+        <v/>
+      </c>
+      <c r="V43" s="47">
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
+        <v/>
+      </c>
+      <c r="W43" s="47" t="n"/>
+      <c r="X43" s="47" t="n"/>
+      <c r="Y43" s="46">
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
+        <v/>
+      </c>
+      <c r="Z43" s="47" t="n"/>
+      <c r="AA43" s="47" t="n"/>
+      <c r="AB43" s="48" t="n"/>
+      <c r="AC43" s="44">
+        <f>if(B5="DIV", F5,"")</f>
+        <v/>
+      </c>
+      <c r="AD43" s="49" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="38" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B44" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C44" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D44" s="40" t="n">
+        <v>20</v>
+      </c>
+      <c r="E44" s="41" t="n">
+        <v>400.62</v>
+      </c>
+      <c r="F44" s="41">
+        <f>D6*E6</f>
+        <v/>
+      </c>
+      <c r="G44" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H44" s="40" t="n"/>
+      <c r="I44" s="40" t="n"/>
+      <c r="J44" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K44" s="43">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
-      <c r="L37" s="44">
+      <c r="L44" s="44">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
-      <c r="M37" s="44">
+      <c r="M44" s="44">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
-      <c r="N37" s="45">
+      <c r="N44" s="45">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
-      <c r="O37" s="43">
+      <c r="O44" s="43">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
-      <c r="P37" s="44">
+      <c r="P44" s="44">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
-      <c r="Q37" s="44">
+      <c r="Q44" s="44">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
-      <c r="R37" s="44">
+      <c r="R44" s="44">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
-      <c r="S37" s="46">
+      <c r="S44" s="46">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
-      <c r="T37" s="47">
+      <c r="T44" s="47">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
-      <c r="U37" s="47">
+      <c r="U44" s="47">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
-      <c r="V37" s="47">
+      <c r="V44" s="47">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
-      <c r="W37" s="47" t="n"/>
-      <c r="X37" s="47" t="n"/>
-      <c r="Y37" s="46">
+      <c r="W44" s="47" t="n"/>
+      <c r="X44" s="47" t="n"/>
+      <c r="Y44" s="46">
         <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
-      <c r="Z37" s="47" t="n"/>
-      <c r="AA37" s="47" t="n"/>
-      <c r="AB37" s="48" t="n"/>
-      <c r="AC37" s="44">
+      <c r="Z44" s="47" t="n"/>
+      <c r="AA44" s="47" t="n"/>
+      <c r="AB44" s="48" t="n"/>
+      <c r="AC44" s="44">
         <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
-      <c r="AD37" s="49" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="38" t="n">
+      <c r="AD44" s="49" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="38" t="n">
         <v>45812</v>
       </c>
-      <c r="B38" s="39" t="inlineStr">
+      <c r="B45" s="39" t="inlineStr">
         <is>
           <t>DIV</t>
         </is>
       </c>
-      <c r="C38" s="39" t="inlineStr">
+      <c r="C45" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D38" s="40" t="n">
+      <c r="D45" s="40" t="n">
         <v>20</v>
       </c>
-      <c r="E38" s="41" t="n">
+      <c r="E45" s="41" t="n">
         <v>6</v>
       </c>
-      <c r="F38" s="41" t="n">
+      <c r="F45" s="41" t="n">
         <v>120</v>
       </c>
-      <c r="G38" s="39" t="inlineStr">
+      <c r="G45" s="39" t="inlineStr">
         <is>
           <t>Annual-Dividend of Rs.6.0000/- per share on Ex-Date: 04-JUN-2025</t>
         </is>
       </c>
-      <c r="H38" s="40" t="n">
+      <c r="H45" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="I38" s="40" t="n">
+      <c r="I45" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J38" s="42">
+      <c r="J45" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K38" s="43">
+      <c r="K45" s="43">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
-      <c r="L38" s="44">
+      <c r="L45" s="44">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
-      <c r="M38" s="44">
+      <c r="M45" s="44">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
-      <c r="N38" s="45">
+      <c r="N45" s="45">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
-      <c r="O38" s="43">
+      <c r="O45" s="43">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
-      <c r="P38" s="44">
+      <c r="P45" s="44">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
-      <c r="Q38" s="44">
+      <c r="Q45" s="44">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
-      <c r="R38" s="44">
+      <c r="R45" s="44">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
-      <c r="S38" s="46">
+      <c r="S45" s="46">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
-      <c r="T38" s="47">
+      <c r="T45" s="47">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
-      <c r="U38" s="47">
+      <c r="U45" s="47">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
-      <c r="V38" s="47">
+      <c r="V45" s="47">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
-      <c r="W38" s="47" t="n"/>
-      <c r="X38" s="47" t="n"/>
-      <c r="Y38" s="46">
+      <c r="W45" s="47" t="n"/>
+      <c r="X45" s="47" t="n"/>
+      <c r="Y45" s="46">
         <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
-      <c r="Z38" s="47" t="n"/>
-      <c r="AA38" s="47" t="n"/>
-      <c r="AB38" s="48" t="n"/>
-      <c r="AC38" s="44">
+      <c r="Z45" s="47" t="n"/>
+      <c r="AA45" s="47" t="n"/>
+      <c r="AB45" s="48" t="n"/>
+      <c r="AC45" s="44">
         <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
-      <c r="AD38" s="49" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="38" t="n">
+      <c r="AD45" s="49" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="38" t="n">
         <v>45811</v>
       </c>
-      <c r="B39" s="39" t="inlineStr">
+      <c r="B46" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C39" s="39" t="inlineStr">
+      <c r="C46" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D39" s="40" t="n">
+      <c r="D46" s="40" t="n">
         <v>5</v>
       </c>
-      <c r="E39" s="41" t="n">
+      <c r="E46" s="41" t="n">
         <v>716.9</v>
       </c>
-      <c r="F39" s="41" t="n">
+      <c r="F46" s="41" t="n">
         <v>3584.48</v>
       </c>
-      <c r="G39" s="39" t="inlineStr">
+      <c r="G46" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H39" s="40" t="n">
+      <c r="H46" s="40" t="n">
         <v>3.56</v>
       </c>
-      <c r="I39" s="40" t="n">
+      <c r="I46" s="40" t="n">
         <v>21.67</v>
       </c>
-      <c r="J39" s="42">
+      <c r="J46" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K39" s="43">
+      <c r="K46" s="43">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
-      <c r="L39" s="44">
+      <c r="L46" s="44">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
-      <c r="M39" s="44">
+      <c r="M46" s="44">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
-      <c r="N39" s="45">
+      <c r="N46" s="45">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
-      <c r="O39" s="43">
+      <c r="O46" s="43">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
-      <c r="P39" s="44">
+      <c r="P46" s="44">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
-      <c r="Q39" s="44">
+      <c r="Q46" s="44">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
-      <c r="R39" s="44">
+      <c r="R46" s="44">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
-      <c r="S39" s="46">
+      <c r="S46" s="46">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
-      <c r="T39" s="47">
+      <c r="T46" s="47">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
-      <c r="U39" s="47">
+      <c r="U46" s="47">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
-      <c r="V39" s="47">
+      <c r="V46" s="47">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
-      <c r="W39" s="47" t="n"/>
-      <c r="X39" s="47" t="n"/>
-      <c r="Y39" s="46">
+      <c r="W46" s="47" t="n"/>
+      <c r="X46" s="47" t="n"/>
+      <c r="Y46" s="46">
         <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
-      <c r="Z39" s="47" t="n"/>
-      <c r="AA39" s="47" t="n"/>
-      <c r="AB39" s="48" t="n"/>
-      <c r="AC39" s="44">
+      <c r="Z46" s="47" t="n"/>
+      <c r="AA46" s="47" t="n"/>
+      <c r="AB46" s="48" t="n"/>
+      <c r="AC46" s="44">
         <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
-      <c r="AD39" s="49" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="50" t="n">
+      <c r="AD46" s="49" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="50" t="n">
         <v>45734</v>
       </c>
-      <c r="B40" s="51" t="inlineStr">
+      <c r="B47" s="51" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C40" s="51" t="inlineStr">
+      <c r="C47" s="51" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D40" s="52" t="n">
+      <c r="D47" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="E40" s="53" t="n">
+      <c r="E47" s="53" t="n">
         <v>682.21</v>
       </c>
-      <c r="F40" s="54">
+      <c r="F47" s="54">
         <f>E9*D9 + sum(H9:I9)</f>
         <v/>
       </c>
-      <c r="G40" s="51" t="inlineStr">
+      <c r="G47" s="51" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H40" s="52" t="n"/>
-      <c r="I40" s="52" t="n">
+      <c r="H47" s="52" t="n"/>
+      <c r="I47" s="52" t="n">
         <v>24.05</v>
       </c>
-      <c r="J40" s="42">
+      <c r="J47" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K40" s="43">
+      <c r="K47" s="43">
         <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
-      <c r="L40" s="44">
+      <c r="L47" s="44">
         <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
-      <c r="M40" s="44">
+      <c r="M47" s="44">
         <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
-      <c r="N40" s="45">
+      <c r="N47" s="45">
         <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
-      <c r="O40" s="43">
+      <c r="O47" s="43">
         <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
-      <c r="P40" s="44">
+      <c r="P47" s="44">
         <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
-      <c r="Q40" s="44">
+      <c r="Q47" s="44">
         <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
-      <c r="R40" s="44">
+      <c r="R47" s="44">
         <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
-      <c r="S40" s="46">
+      <c r="S47" s="46">
         <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
-      <c r="T40" s="47">
+      <c r="T47" s="47">
         <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
-      <c r="U40" s="47">
+      <c r="U47" s="47">
         <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
-      <c r="V40" s="47">
+      <c r="V47" s="47">
         <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
-      <c r="W40" s="47" t="n"/>
-      <c r="X40" s="47" t="n"/>
-      <c r="Y40" s="46">
+      <c r="W47" s="47" t="n"/>
+      <c r="X47" s="47" t="n"/>
+      <c r="Y47" s="46">
         <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
-      <c r="Z40" s="47" t="n"/>
-      <c r="AA40" s="47" t="n"/>
-      <c r="AB40" s="48" t="n"/>
-      <c r="AC40" s="44">
+      <c r="Z47" s="47" t="n"/>
+      <c r="AA47" s="47" t="n"/>
+      <c r="AB47" s="48" t="n"/>
+      <c r="AC47" s="44">
         <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
-      <c r="AD40" s="49" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="50" t="n">
+      <c r="AD47" s="49" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="50" t="n">
         <v>45722</v>
       </c>
-      <c r="B41" s="51" t="inlineStr">
+      <c r="B48" s="51" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C41" s="51" t="inlineStr">
+      <c r="C48" s="51" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D41" s="52" t="n">
+      <c r="D48" s="52" t="n">
         <v>10</v>
       </c>
-      <c r="E41" s="53" t="n">
+      <c r="E48" s="53" t="n">
         <v>641.52</v>
       </c>
-      <c r="F41" s="53" t="n">
+      <c r="F48" s="53" t="n">
         <v>6415.23</v>
       </c>
-      <c r="G41" s="51" t="inlineStr">
+      <c r="G48" s="51" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H41" s="52" t="n">
+      <c r="H48" s="52" t="n">
         <v>6.4</v>
       </c>
-      <c r="I41" s="52" t="n">
+      <c r="I48" s="52" t="n">
         <v>38.83</v>
       </c>
-      <c r="J41" s="42">
+      <c r="J48" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K41" s="43">
+      <c r="K48" s="43">
         <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
-      <c r="L41" s="44">
+      <c r="L48" s="44">
         <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
-      <c r="M41" s="44">
+      <c r="M48" s="44">
         <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
-      <c r="N41" s="45">
+      <c r="N48" s="45">
         <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
-      <c r="O41" s="43">
+      <c r="O48" s="43">
         <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
-      <c r="P41" s="44">
+      <c r="P48" s="44">
         <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
-      <c r="Q41" s="44">
+      <c r="Q48" s="44">
         <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
-      <c r="R41" s="44">
+      <c r="R48" s="44">
         <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
-      <c r="S41" s="46">
+      <c r="S48" s="46">
         <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
-      <c r="T41" s="47">
+      <c r="T48" s="47">
         <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
-      <c r="U41" s="47">
+      <c r="U48" s="47">
         <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
-      <c r="V41" s="47">
+      <c r="V48" s="47">
         <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
-      <c r="W41" s="47" t="n"/>
-      <c r="X41" s="47" t="n"/>
-      <c r="Y41" s="46">
+      <c r="W48" s="47" t="n"/>
+      <c r="X48" s="47" t="n"/>
+      <c r="Y48" s="46">
         <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
-      <c r="Z41" s="47" t="n"/>
-      <c r="AA41" s="47" t="n"/>
-      <c r="AB41" s="48" t="n"/>
-      <c r="AC41" s="44">
+      <c r="Z48" s="47" t="n"/>
+      <c r="AA48" s="47" t="n"/>
+      <c r="AB48" s="48" t="n"/>
+      <c r="AC48" s="44">
         <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
-      <c r="AD41" s="49" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="50" t="n">
+      <c r="AD48" s="49" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="50" t="n">
         <v>44228</v>
       </c>
-      <c r="B42" s="51" t="inlineStr">
+      <c r="B49" s="51" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C42" s="51" t="inlineStr">
+      <c r="C49" s="51" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D42" s="52" t="n">
+      <c r="D49" s="52" t="n">
         <v>50</v>
       </c>
-      <c r="E42" s="53" t="n">
+      <c r="E49" s="53" t="n">
         <v>276.62</v>
       </c>
-      <c r="F42" s="53" t="n">
+      <c r="F49" s="53" t="n">
         <v>13831.06</v>
       </c>
-      <c r="G42" s="51" t="inlineStr">
+      <c r="G49" s="51" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H42" s="52" t="n">
+      <c r="H49" s="52" t="n">
         <v>13.93</v>
       </c>
-      <c r="I42" s="52" t="n">
+      <c r="I49" s="52" t="n">
         <v>82.51000000000001</v>
       </c>
-      <c r="J42" s="42">
+      <c r="J49" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K42" s="43">
+      <c r="K49" s="43">
         <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
-      <c r="L42" s="44">
+      <c r="L49" s="44">
         <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
-      <c r="M42" s="44">
+      <c r="M49" s="44">
         <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
-      <c r="N42" s="45">
+      <c r="N49" s="45">
         <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
-      <c r="O42" s="43">
+      <c r="O49" s="43">
         <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
-      <c r="P42" s="44">
+      <c r="P49" s="44">
         <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
-      <c r="Q42" s="44">
+      <c r="Q49" s="44">
         <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
-      <c r="R42" s="44">
+      <c r="R49" s="44">
         <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
-      <c r="S42" s="46">
+      <c r="S49" s="46">
         <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
-      <c r="T42" s="47">
+      <c r="T49" s="47">
         <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
-      <c r="U42" s="47">
+      <c r="U49" s="47">
         <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
-      <c r="V42" s="47">
+      <c r="V49" s="47">
         <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
-      <c r="W42" s="47" t="n"/>
-      <c r="X42" s="47" t="n"/>
-      <c r="Y42" s="46">
+      <c r="W49" s="47" t="n"/>
+      <c r="X49" s="47" t="n"/>
+      <c r="Y49" s="46">
         <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
-      <c r="Z42" s="47" t="n"/>
-      <c r="AA42" s="47" t="n"/>
-      <c r="AB42" s="48" t="n"/>
-      <c r="AC42" s="44">
+      <c r="Z49" s="47" t="n"/>
+      <c r="AA49" s="47" t="n"/>
+      <c r="AB49" s="48" t="n"/>
+      <c r="AC49" s="44">
         <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
-      <c r="AD42" s="49" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="50" t="n">
+      <c r="AD49" s="49" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="50" t="n">
         <v>43405</v>
       </c>
-      <c r="B43" s="51" t="inlineStr">
+      <c r="B50" s="51" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C43" s="51" t="inlineStr">
+      <c r="C50" s="51" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D43" s="52" t="n">
+      <c r="D50" s="52" t="n">
         <v>50</v>
       </c>
-      <c r="E43" s="53" t="n">
+      <c r="E50" s="53" t="n">
         <v>183.08</v>
       </c>
-      <c r="F43" s="53" t="n">
+      <c r="F50" s="53" t="n">
         <v>9154.049999999999</v>
       </c>
-      <c r="G43" s="51" t="inlineStr">
+      <c r="G50" s="51" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H43" s="52" t="n">
+      <c r="H50" s="52" t="n">
         <v>9.1</v>
       </c>
-      <c r="I43" s="52" t="n">
+      <c r="I50" s="52" t="n">
         <v>54.95</v>
       </c>
-      <c r="J43" s="42">
+      <c r="J50" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K43" s="47" t="n"/>
-      <c r="L43" s="47">
+      <c r="K50" s="47" t="n"/>
+      <c r="L50" s="47">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
-      <c r="M43" s="55">
+      <c r="M50" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
-      <c r="N43" s="56">
+      <c r="N50" s="56">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
-      <c r="O43" s="55" t="n"/>
-      <c r="P43" s="47">
+      <c r="O50" s="55" t="n"/>
+      <c r="P50" s="47">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
-      <c r="Q43" s="55">
+      <c r="Q50" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
-      <c r="R43" s="55">
+      <c r="R50" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
-      <c r="S43" s="55" t="n"/>
-      <c r="T43" s="55">
+      <c r="S50" s="55" t="n"/>
+      <c r="T50" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (J12*D12)-(E12*D12)-(2*sum(H12:I12)), "")</f>
         <v/>
       </c>
-      <c r="U43" s="55">
+      <c r="U50" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
-      <c r="V43" s="55">
+      <c r="V50" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
-      <c r="W43" s="53" t="n">
+      <c r="W50" s="53" t="n">
         <v>276.62</v>
       </c>
-      <c r="X43" s="50" t="n">
+      <c r="X50" s="50" t="n">
         <v>44228</v>
       </c>
-      <c r="Y43" s="46">
+      <c r="Y50" s="46">
         <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
-      <c r="Z43" s="57">
+      <c r="Z50" s="57">
         <f>(1-Index!$F$2*2)*((W12*D12)-(E12*D12))</f>
         <v/>
       </c>
-      <c r="AA43" s="57">
+      <c r="AA50" s="57">
         <f>((E12*D12)+Z12)</f>
         <v/>
       </c>
-      <c r="AB43" s="58">
+      <c r="AB50" s="58">
         <f>D12</f>
         <v/>
       </c>
-      <c r="AC43" s="44">
+      <c r="AC50" s="44">
         <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
-      <c r="AD43" s="49" t="n"/>
-      <c r="AE43" s="59" t="n"/>
-      <c r="AF43" s="59" t="n"/>
-      <c r="AG43" s="59" t="n"/>
-      <c r="AH43" s="59" t="n"/>
-      <c r="AI43" s="59" t="n"/>
-      <c r="AJ43" s="59" t="n"/>
-      <c r="AK43" s="59" t="n"/>
-      <c r="AL43" s="59" t="n"/>
-      <c r="AM43" s="59" t="n"/>
-      <c r="AN43" s="59" t="n"/>
-      <c r="AO43" s="59" t="n"/>
-      <c r="AP43" s="59" t="n"/>
-    </row>
-    <row r="44">
-      <c r="E44" s="60" t="n"/>
-      <c r="F44" s="60" t="n"/>
-      <c r="G44" s="61" t="n"/>
-      <c r="J44" s="60" t="n"/>
-      <c r="K44" s="60" t="n"/>
-      <c r="L44" s="60" t="n"/>
-      <c r="M44" s="63" t="n"/>
-      <c r="W44" s="60" t="n"/>
-      <c r="X44" s="60" t="n"/>
-      <c r="Y44" s="60" t="n"/>
-      <c r="Z44" s="60" t="n"/>
-      <c r="AA44" s="60" t="n"/>
-      <c r="AB44" s="60" t="n"/>
-      <c r="AC44" s="60" t="n"/>
-    </row>
-    <row r="45">
-      <c r="E45" s="60" t="n"/>
-      <c r="F45" s="60" t="n"/>
-      <c r="G45" s="61" t="n"/>
-      <c r="J45" s="60" t="n"/>
-      <c r="K45" s="60" t="n"/>
-      <c r="L45" s="60" t="n"/>
-      <c r="M45" s="63" t="n"/>
-      <c r="W45" s="60" t="n"/>
-      <c r="X45" s="60" t="n"/>
-      <c r="Y45" s="60" t="n"/>
-      <c r="Z45" s="60" t="n"/>
-      <c r="AA45" s="60" t="n"/>
-      <c r="AB45" s="60" t="n"/>
-      <c r="AC45" s="60" t="n"/>
-    </row>
-    <row r="46">
-      <c r="E46" s="60" t="n"/>
-      <c r="F46" s="60" t="n"/>
-      <c r="G46" s="61" t="n"/>
-      <c r="J46" s="60" t="n"/>
-      <c r="K46" s="60" t="n"/>
-      <c r="L46" s="60" t="n"/>
-      <c r="M46" s="63" t="n"/>
-      <c r="W46" s="60" t="n"/>
-      <c r="X46" s="60" t="n"/>
-      <c r="Y46" s="60" t="n"/>
-      <c r="Z46" s="60" t="n"/>
-      <c r="AA46" s="60" t="n"/>
-      <c r="AB46" s="60" t="n"/>
-      <c r="AC46" s="60" t="n"/>
-    </row>
-    <row r="47">
-      <c r="E47" s="60" t="n"/>
-      <c r="F47" s="60" t="n"/>
-      <c r="G47" s="61" t="n"/>
-      <c r="J47" s="60" t="n"/>
-      <c r="K47" s="60" t="n"/>
-      <c r="L47" s="60" t="n"/>
-      <c r="M47" s="63" t="n"/>
-      <c r="W47" s="60" t="n"/>
-      <c r="X47" s="60" t="n"/>
-      <c r="Y47" s="60" t="n"/>
-      <c r="Z47" s="60" t="n"/>
-      <c r="AA47" s="60" t="n"/>
-      <c r="AB47" s="60" t="n"/>
-      <c r="AC47" s="60" t="n"/>
-    </row>
-    <row r="48">
-      <c r="E48" s="60" t="n"/>
-      <c r="F48" s="60" t="n"/>
-      <c r="G48" s="61" t="n"/>
-      <c r="J48" s="60" t="n"/>
-      <c r="K48" s="60" t="n"/>
-      <c r="L48" s="60" t="n"/>
-      <c r="M48" s="63" t="n"/>
-      <c r="W48" s="60" t="n"/>
-      <c r="X48" s="60" t="n"/>
-      <c r="Y48" s="60" t="n"/>
-      <c r="Z48" s="60" t="n"/>
-      <c r="AA48" s="60" t="n"/>
-      <c r="AB48" s="60" t="n"/>
-      <c r="AC48" s="60" t="n"/>
-    </row>
-    <row r="49">
-      <c r="E49" s="60" t="n"/>
-      <c r="F49" s="60" t="n"/>
-      <c r="G49" s="61" t="n"/>
-      <c r="J49" s="60" t="n"/>
-      <c r="K49" s="60" t="n"/>
-      <c r="L49" s="60" t="n"/>
-      <c r="M49" s="63" t="n"/>
-      <c r="W49" s="60" t="n"/>
-      <c r="X49" s="60" t="n"/>
-      <c r="Y49" s="60" t="n"/>
-      <c r="Z49" s="60" t="n"/>
-      <c r="AA49" s="60" t="n"/>
-      <c r="AB49" s="60" t="n"/>
-      <c r="AC49" s="60" t="n"/>
-    </row>
-    <row r="50">
-      <c r="E50" s="60" t="n"/>
-      <c r="F50" s="60" t="n"/>
-      <c r="G50" s="61" t="n"/>
-      <c r="J50" s="60" t="n"/>
-      <c r="K50" s="60" t="n"/>
-      <c r="L50" s="60" t="n"/>
-      <c r="M50" s="63" t="n"/>
-      <c r="W50" s="60" t="n"/>
-      <c r="X50" s="60" t="n"/>
-      <c r="Y50" s="60" t="n"/>
-      <c r="Z50" s="60" t="n"/>
-      <c r="AA50" s="60" t="n"/>
-      <c r="AB50" s="60" t="n"/>
-      <c r="AC50" s="60" t="n"/>
+      <c r="AD50" s="49" t="n"/>
+      <c r="AE50" s="59" t="n"/>
+      <c r="AF50" s="59" t="n"/>
+      <c r="AG50" s="59" t="n"/>
+      <c r="AH50" s="59" t="n"/>
+      <c r="AI50" s="59" t="n"/>
+      <c r="AJ50" s="59" t="n"/>
+      <c r="AK50" s="59" t="n"/>
+      <c r="AL50" s="59" t="n"/>
+      <c r="AM50" s="59" t="n"/>
+      <c r="AN50" s="59" t="n"/>
+      <c r="AO50" s="59" t="n"/>
+      <c r="AP50" s="59" t="n"/>
     </row>
     <row r="51">
       <c r="E51" s="60" t="n"/>
@@ -18016,6 +18156,7 @@
       <c r="J980" s="60" t="n"/>
       <c r="K980" s="60" t="n"/>
       <c r="L980" s="60" t="n"/>
+      <c r="M980" s="63" t="n"/>
       <c r="W980" s="60" t="n"/>
       <c r="X980" s="60" t="n"/>
       <c r="Y980" s="60" t="n"/>
@@ -18031,6 +18172,7 @@
       <c r="J981" s="60" t="n"/>
       <c r="K981" s="60" t="n"/>
       <c r="L981" s="60" t="n"/>
+      <c r="M981" s="63" t="n"/>
       <c r="W981" s="60" t="n"/>
       <c r="X981" s="60" t="n"/>
       <c r="Y981" s="60" t="n"/>
@@ -18046,6 +18188,7 @@
       <c r="J982" s="60" t="n"/>
       <c r="K982" s="60" t="n"/>
       <c r="L982" s="60" t="n"/>
+      <c r="M982" s="63" t="n"/>
       <c r="W982" s="60" t="n"/>
       <c r="X982" s="60" t="n"/>
       <c r="Y982" s="60" t="n"/>
@@ -18061,6 +18204,7 @@
       <c r="J983" s="60" t="n"/>
       <c r="K983" s="60" t="n"/>
       <c r="L983" s="60" t="n"/>
+      <c r="M983" s="63" t="n"/>
       <c r="W983" s="60" t="n"/>
       <c r="X983" s="60" t="n"/>
       <c r="Y983" s="60" t="n"/>
@@ -18076,6 +18220,7 @@
       <c r="J984" s="60" t="n"/>
       <c r="K984" s="60" t="n"/>
       <c r="L984" s="60" t="n"/>
+      <c r="M984" s="63" t="n"/>
       <c r="W984" s="60" t="n"/>
       <c r="X984" s="60" t="n"/>
       <c r="Y984" s="60" t="n"/>
@@ -18091,6 +18236,7 @@
       <c r="J985" s="60" t="n"/>
       <c r="K985" s="60" t="n"/>
       <c r="L985" s="60" t="n"/>
+      <c r="M985" s="63" t="n"/>
       <c r="W985" s="60" t="n"/>
       <c r="X985" s="60" t="n"/>
       <c r="Y985" s="60" t="n"/>
@@ -18106,6 +18252,7 @@
       <c r="J986" s="60" t="n"/>
       <c r="K986" s="60" t="n"/>
       <c r="L986" s="60" t="n"/>
+      <c r="M986" s="63" t="n"/>
       <c r="W986" s="60" t="n"/>
       <c r="X986" s="60" t="n"/>
       <c r="Y986" s="60" t="n"/>
@@ -18263,6 +18410,111 @@
       <c r="AA996" s="60" t="n"/>
       <c r="AB996" s="60" t="n"/>
       <c r="AC996" s="60" t="n"/>
+    </row>
+    <row r="997">
+      <c r="E997" s="60" t="n"/>
+      <c r="F997" s="60" t="n"/>
+      <c r="G997" s="61" t="n"/>
+      <c r="J997" s="60" t="n"/>
+      <c r="K997" s="60" t="n"/>
+      <c r="L997" s="60" t="n"/>
+      <c r="W997" s="60" t="n"/>
+      <c r="X997" s="60" t="n"/>
+      <c r="Y997" s="60" t="n"/>
+      <c r="Z997" s="60" t="n"/>
+      <c r="AA997" s="60" t="n"/>
+      <c r="AB997" s="60" t="n"/>
+      <c r="AC997" s="60" t="n"/>
+    </row>
+    <row r="998">
+      <c r="E998" s="60" t="n"/>
+      <c r="F998" s="60" t="n"/>
+      <c r="G998" s="61" t="n"/>
+      <c r="J998" s="60" t="n"/>
+      <c r="K998" s="60" t="n"/>
+      <c r="L998" s="60" t="n"/>
+      <c r="W998" s="60" t="n"/>
+      <c r="X998" s="60" t="n"/>
+      <c r="Y998" s="60" t="n"/>
+      <c r="Z998" s="60" t="n"/>
+      <c r="AA998" s="60" t="n"/>
+      <c r="AB998" s="60" t="n"/>
+      <c r="AC998" s="60" t="n"/>
+    </row>
+    <row r="999">
+      <c r="E999" s="60" t="n"/>
+      <c r="F999" s="60" t="n"/>
+      <c r="G999" s="61" t="n"/>
+      <c r="J999" s="60" t="n"/>
+      <c r="K999" s="60" t="n"/>
+      <c r="L999" s="60" t="n"/>
+      <c r="W999" s="60" t="n"/>
+      <c r="X999" s="60" t="n"/>
+      <c r="Y999" s="60" t="n"/>
+      <c r="Z999" s="60" t="n"/>
+      <c r="AA999" s="60" t="n"/>
+      <c r="AB999" s="60" t="n"/>
+      <c r="AC999" s="60" t="n"/>
+    </row>
+    <row r="1000">
+      <c r="E1000" s="60" t="n"/>
+      <c r="F1000" s="60" t="n"/>
+      <c r="G1000" s="61" t="n"/>
+      <c r="J1000" s="60" t="n"/>
+      <c r="K1000" s="60" t="n"/>
+      <c r="L1000" s="60" t="n"/>
+      <c r="W1000" s="60" t="n"/>
+      <c r="X1000" s="60" t="n"/>
+      <c r="Y1000" s="60" t="n"/>
+      <c r="Z1000" s="60" t="n"/>
+      <c r="AA1000" s="60" t="n"/>
+      <c r="AB1000" s="60" t="n"/>
+      <c r="AC1000" s="60" t="n"/>
+    </row>
+    <row r="1001">
+      <c r="E1001" s="60" t="n"/>
+      <c r="F1001" s="60" t="n"/>
+      <c r="G1001" s="61" t="n"/>
+      <c r="J1001" s="60" t="n"/>
+      <c r="K1001" s="60" t="n"/>
+      <c r="L1001" s="60" t="n"/>
+      <c r="W1001" s="60" t="n"/>
+      <c r="X1001" s="60" t="n"/>
+      <c r="Y1001" s="60" t="n"/>
+      <c r="Z1001" s="60" t="n"/>
+      <c r="AA1001" s="60" t="n"/>
+      <c r="AB1001" s="60" t="n"/>
+      <c r="AC1001" s="60" t="n"/>
+    </row>
+    <row r="1002">
+      <c r="E1002" s="60" t="n"/>
+      <c r="F1002" s="60" t="n"/>
+      <c r="G1002" s="61" t="n"/>
+      <c r="J1002" s="60" t="n"/>
+      <c r="K1002" s="60" t="n"/>
+      <c r="L1002" s="60" t="n"/>
+      <c r="W1002" s="60" t="n"/>
+      <c r="X1002" s="60" t="n"/>
+      <c r="Y1002" s="60" t="n"/>
+      <c r="Z1002" s="60" t="n"/>
+      <c r="AA1002" s="60" t="n"/>
+      <c r="AB1002" s="60" t="n"/>
+      <c r="AC1002" s="60" t="n"/>
+    </row>
+    <row r="1003">
+      <c r="E1003" s="60" t="n"/>
+      <c r="F1003" s="60" t="n"/>
+      <c r="G1003" s="61" t="n"/>
+      <c r="J1003" s="60" t="n"/>
+      <c r="K1003" s="60" t="n"/>
+      <c r="L1003" s="60" t="n"/>
+      <c r="W1003" s="60" t="n"/>
+      <c r="X1003" s="60" t="n"/>
+      <c r="Y1003" s="60" t="n"/>
+      <c r="Z1003" s="60" t="n"/>
+      <c r="AA1003" s="60" t="n"/>
+      <c r="AB1003" s="60" t="n"/>
+      <c r="AC1003" s="60" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$42"/>

--- a/dumps/Stocks/Tata Chemicals.xlsx
+++ b/dumps/Stocks/Tata Chemicals.xlsx
@@ -771,7 +771,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP988"/>
+  <dimension ref="A1:AP989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1121,11 +1121,11 @@
     </row>
     <row r="5">
       <c r="A5" s="94" t="n">
-        <v>46063</v>
+        <v>46062</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1137,18 +1137,18 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>719.15</v>
+        <v>710</v>
       </c>
       <c r="F5" t="n">
-        <v>3613.75</v>
+        <v>3567.75</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>18</v>
+        <v>17.75</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1157,11 +1157,11 @@
     </row>
     <row r="6">
       <c r="A6" s="94" t="n">
-        <v>46059</v>
+        <v>46063</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -1173,18 +1173,18 @@
         <v>5</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>710.65</v>
+        <v>719.15</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3571</v>
+        <v>3613.75</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>17.75</v>
+        <v>18</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="7">
       <c r="A7" s="94" t="n">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1206,21 +1206,21 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>713.775</v>
+        <v>710.65</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>7173.45</v>
+        <v>3571</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>35.7</v>
+        <v>17.75</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="8">
       <c r="A8" s="94" t="n">
-        <v>46027</v>
+        <v>46049</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1242,21 +1242,21 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>755.25</v>
+        <v>713.775</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3795.15</v>
+        <v>7173.45</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252610159828</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>18.9</v>
+        <v>35.7</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -1265,11 +1265,11 @@
     </row>
     <row r="9">
       <c r="A9" s="94" t="n">
-        <v>46017</v>
+        <v>46027</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -1281,18 +1281,18 @@
         <v>5</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>768.05</v>
+        <v>755.25</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3859.45</v>
+        <v>3795.15</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252609810990</t>
+          <t>CN#252610159828</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="J9" s="0">
         <f>Index!$C$2</f>
@@ -1301,11 +1301,11 @@
     </row>
     <row r="10">
       <c r="A10" s="94" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1317,18 +1317,18 @@
         <v>5</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>770.85</v>
+        <v>768.05</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3873.5</v>
+        <v>3859.45</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252609755521</t>
+          <t>CN#252609810990</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>19.25</v>
+        <v>19.2</v>
       </c>
       <c r="J10" s="0">
         <f>Index!$C$2</f>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="11">
       <c r="A11" s="94" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1353,18 +1353,18 @@
         <v>5</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>774.45</v>
+        <v>770.85</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3891.6</v>
+        <v>3873.5</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252609701573</t>
+          <t>CN#252609755521</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>19.35</v>
+        <v>19.25</v>
       </c>
       <c r="J11" s="0">
         <f>Index!$C$2</f>
@@ -1373,11 +1373,11 @@
     </row>
     <row r="12">
       <c r="A12" s="94" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1389,18 +1389,18 @@
         <v>5</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>747</v>
+        <v>774.45</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3753.7</v>
+        <v>3891.6</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>CN#252609527272</t>
+          <t>CN#252609701573</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>18.7</v>
+        <v>19.35</v>
       </c>
       <c r="J12" s="0">
         <f>Index!$C$2</f>
@@ -1409,11 +1409,11 @@
     </row>
     <row r="13">
       <c r="A13" s="94" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1425,18 +1425,18 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>764.24</v>
+        <v>747</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3840.3</v>
+        <v>3753.7</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252609527272</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>19.1</v>
+        <v>18.7</v>
       </c>
       <c r="J13" s="0">
         <f>Index!$C$2</f>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="14">
       <c r="A14" s="94" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1461,18 +1461,18 @@
         <v>5</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>756</v>
+        <v>764.24</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3798.9</v>
+        <v>3840.3</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>CN#252609267726</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="J14" s="0">
         <f>Index!$C$2</f>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="15">
       <c r="A15" s="94" t="n">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1497,14 +1497,14 @@
         <v>5</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>755.25</v>
+        <v>756</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3795.15</v>
+        <v>3798.9</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>CN#252609157599</t>
+          <t>CN#252609267726</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
@@ -1517,7 +1517,7 @@
     </row>
     <row r="16">
       <c r="A16" s="94" t="n">
-        <v>45993</v>
+        <v>46000</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1533,18 +1533,18 @@
         <v>5</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>790.8</v>
+        <v>755.25</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3973.75</v>
+        <v>3795.15</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>CN#252608877522</t>
+          <t>CN#252609157599</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>19.75</v>
+        <v>18.9</v>
       </c>
       <c r="J16" s="0">
         <f>Index!$C$2</f>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="17">
       <c r="A17" s="94" t="n">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1569,18 +1569,18 @@
         <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>804</v>
+        <v>790.8</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>4040.1</v>
+        <v>3973.75</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>CN#252608755594</t>
+          <t>CN#252608877522</t>
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>20.1</v>
+        <v>19.75</v>
       </c>
       <c r="J17" s="0">
         <f>Index!$C$2</f>
@@ -1589,11 +1589,11 @@
     </row>
     <row r="18">
       <c r="A18" s="94" t="n">
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -1605,18 +1605,18 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>812.9</v>
+        <v>804</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>4084.8</v>
+        <v>4040.1</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>CN#252608703866</t>
+          <t>CN#252608755594</t>
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="J18" s="0">
         <f>Index!$C$2</f>
@@ -1625,11 +1625,11 @@
     </row>
     <row r="19">
       <c r="A19" s="94" t="n">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -1641,14 +1641,14 @@
         <v>5</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>812.45</v>
+        <v>812.9</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>4082.55</v>
+        <v>4084.8</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>CN#252608495287</t>
+          <t>CN#252608703866</t>
         </is>
       </c>
       <c r="I19" s="0" t="n">
@@ -1661,7 +1661,7 @@
     </row>
     <row r="20">
       <c r="A20" s="94" t="n">
-        <v>45979</v>
+        <v>45982</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1677,18 +1677,18 @@
         <v>5</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>830.09</v>
+        <v>812.45</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>4171.2</v>
+        <v>4082.55</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>CN#252608322011</t>
+          <t>CN#252608495287</t>
         </is>
       </c>
       <c r="I20" s="0" t="n">
-        <v>20.75</v>
+        <v>20.3</v>
       </c>
       <c r="J20" s="0">
         <f>Index!$C$2</f>
@@ -1697,11 +1697,11 @@
     </row>
     <row r="21">
       <c r="A21" s="94" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -1713,18 +1713,18 @@
         <v>5</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>839</v>
+        <v>830.09</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>4216</v>
+        <v>4171.2</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252608322011</t>
         </is>
       </c>
       <c r="I21" s="0" t="n">
-        <v>21</v>
+        <v>20.75</v>
       </c>
       <c r="J21" s="0">
         <f>Index!$C$2</f>
@@ -1733,11 +1733,11 @@
     </row>
     <row r="22">
       <c r="A22" s="94" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -1749,18 +1749,18 @@
         <v>5</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>837.05</v>
+        <v>839</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>4206.2</v>
+        <v>4216</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
-          <t>CN#252608199734</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I22" s="0" t="n">
-        <v>20.95</v>
+        <v>21</v>
       </c>
       <c r="J22" s="0">
         <f>Index!$C$2</f>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="23">
       <c r="A23" s="94" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
@@ -1785,18 +1785,18 @@
         <v>5</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>845.75</v>
+        <v>837.05</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>4249.9</v>
+        <v>4206.2</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
-          <t>CN#252608142538</t>
+          <t>CN#252608199734</t>
         </is>
       </c>
       <c r="I23" s="0" t="n">
-        <v>21.15</v>
+        <v>20.95</v>
       </c>
       <c r="J23" s="0">
         <f>Index!$C$2</f>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="24">
       <c r="A24" s="94" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
@@ -1821,18 +1821,18 @@
         <v>5</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>842.15</v>
+        <v>845.75</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>4231.8</v>
+        <v>4249.9</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
-          <t>CN#252608021091</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
       <c r="I24" s="0" t="n">
-        <v>21.05</v>
+        <v>21.15</v>
       </c>
       <c r="J24" s="0">
         <f>Index!$C$2</f>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="25">
       <c r="A25" s="94" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
@@ -1857,18 +1857,18 @@
         <v>5</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>844.15</v>
+        <v>842.15</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>4241.85</v>
+        <v>4231.8</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
-          <t>CN#252607962278</t>
+          <t>CN#252608021091</t>
         </is>
       </c>
       <c r="I25" s="0" t="n">
-        <v>21.1</v>
+        <v>21.05</v>
       </c>
       <c r="J25" s="0">
         <f>Index!$C$2</f>
@@ -1877,11 +1877,11 @@
     </row>
     <row r="26">
       <c r="A26" s="94" t="n">
-        <v>45961</v>
+        <v>45971</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
@@ -1893,18 +1893,18 @@
         <v>5</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>892.95</v>
+        <v>844.15</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>4487.05</v>
+        <v>4241.85</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
-          <t>CN#252607606298</t>
+          <t>CN#252607962278</t>
         </is>
       </c>
       <c r="I26" s="0" t="n">
-        <v>22.3</v>
+        <v>21.1</v>
       </c>
       <c r="J26" s="0">
         <f>Index!$C$2</f>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="27">
       <c r="A27" s="94" t="n">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
@@ -1929,125 +1929,63 @@
         <v>5</v>
       </c>
       <c r="E27" s="0" t="n">
+        <v>892.95</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>4487.05</v>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607606298</t>
+        </is>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="J27" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="94" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" s="0" t="n">
         <v>894.2</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>4493.35</v>
       </c>
-      <c r="G27" s="0" t="inlineStr">
+      <c r="G28" s="0" t="inlineStr">
         <is>
           <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I28" s="0" t="n">
         <v>22.35</v>
       </c>
-      <c r="J27" s="0">
+      <c r="J28" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B28" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C28" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D28" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E28" s="41" t="n">
-        <v>401.57</v>
-      </c>
-      <c r="F28" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G28" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H28" s="40" t="n"/>
-      <c r="I28" s="40" t="n"/>
-      <c r="J28" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K28" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L28" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M28" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N28" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O28" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P28" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q28" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R28" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S28" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T28" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U28" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V28" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W28" s="47" t="n"/>
-      <c r="X28" s="47" t="n"/>
-      <c r="Y28" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z28" s="47" t="n"/>
-      <c r="AA28" s="47" t="n"/>
-      <c r="AB28" s="48" t="n"/>
-      <c r="AC28" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD28" s="49" t="n"/>
-    </row>
     <row r="29">
       <c r="A29" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B29" s="39" t="inlineStr">
         <is>
@@ -2060,13 +1998,13 @@
         </is>
       </c>
       <c r="D29" s="40" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E29" s="41" t="n">
-        <v>400.62</v>
+        <v>401.57</v>
       </c>
       <c r="F29" s="41">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G29" s="39" t="inlineStr">
@@ -2081,75 +2019,75 @@
         <v/>
       </c>
       <c r="K29" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L29" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M29" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N29" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O29" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P29" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R29" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S29" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T29" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U29" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V29" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W29" s="47" t="n"/>
       <c r="X29" s="47" t="n"/>
       <c r="Y29" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z29" s="47" t="n"/>
       <c r="AA29" s="47" t="n"/>
       <c r="AB29" s="48" t="n"/>
       <c r="AC29" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD29" s="49" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="38" t="n">
-        <v>45812</v>
+        <v>45947</v>
       </c>
       <c r="B30" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C30" s="39" t="inlineStr">
@@ -2161,96 +2099,93 @@
         <v>20</v>
       </c>
       <c r="E30" s="41" t="n">
-        <v>6</v>
-      </c>
-      <c r="F30" s="41" t="n">
-        <v>120</v>
+        <v>400.62</v>
+      </c>
+      <c r="F30" s="41">
+        <f>D6*E6</f>
+        <v/>
       </c>
       <c r="G30" s="39" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.6.0000/- per share on Ex-Date: 04-JUN-2025</t>
+          <t>~</t>
         </is>
       </c>
-      <c r="H30" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="40" t="n">
-        <v>0</v>
-      </c>
+      <c r="H30" s="40" t="n"/>
+      <c r="I30" s="40" t="n"/>
       <c r="J30" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K30" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L30" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M30" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N30" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O30" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P30" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R30" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S30" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T30" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U30" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V30" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W30" s="47" t="n"/>
       <c r="X30" s="47" t="n"/>
       <c r="Y30" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z30" s="47" t="n"/>
       <c r="AA30" s="47" t="n"/>
       <c r="AB30" s="48" t="n"/>
       <c r="AC30" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD30" s="49" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="38" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B31" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C31" s="39" t="inlineStr">
@@ -2259,195 +2194,196 @@
         </is>
       </c>
       <c r="D31" s="40" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E31" s="41" t="n">
-        <v>716.9</v>
+        <v>6</v>
       </c>
       <c r="F31" s="41" t="n">
-        <v>3584.48</v>
+        <v>120</v>
       </c>
       <c r="G31" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.6.0000/- per share on Ex-Date: 04-JUN-2025</t>
         </is>
       </c>
       <c r="H31" s="40" t="n">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="I31" s="40" t="n">
-        <v>21.67</v>
+        <v>0</v>
       </c>
       <c r="J31" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K31" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L31" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M31" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N31" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O31" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P31" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R31" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S31" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T31" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U31" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V31" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W31" s="47" t="n"/>
       <c r="X31" s="47" t="n"/>
       <c r="Y31" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z31" s="47" t="n"/>
       <c r="AA31" s="47" t="n"/>
       <c r="AB31" s="48" t="n"/>
       <c r="AC31" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD31" s="49" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="50" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B32" s="51" t="inlineStr">
+      <c r="A32" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B32" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C32" s="51" t="inlineStr">
+      <c r="C32" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D32" s="52" t="n">
+      <c r="D32" s="40" t="n">
         <v>5</v>
       </c>
-      <c r="E32" s="53" t="n">
-        <v>682.21</v>
-      </c>
-      <c r="F32" s="54">
-        <f>E9*D9 + sum(H9:I9)</f>
-        <v/>
-      </c>
-      <c r="G32" s="51" t="inlineStr">
+      <c r="E32" s="41" t="n">
+        <v>716.9</v>
+      </c>
+      <c r="F32" s="41" t="n">
+        <v>3584.48</v>
+      </c>
+      <c r="G32" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H32" s="52" t="n"/>
-      <c r="I32" s="52" t="n">
-        <v>24.05</v>
+      <c r="H32" s="40" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="I32" s="40" t="n">
+        <v>21.67</v>
       </c>
       <c r="J32" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K32" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L32" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M32" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N32" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O32" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P32" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q32" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R32" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S32" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T32" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U32" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V32" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W32" s="47" t="n"/>
       <c r="X32" s="47" t="n"/>
       <c r="Y32" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z32" s="47" t="n"/>
       <c r="AA32" s="47" t="n"/>
       <c r="AB32" s="48" t="n"/>
       <c r="AC32" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD32" s="49" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="50" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B33" s="51" t="inlineStr">
         <is>
@@ -2460,95 +2396,94 @@
         </is>
       </c>
       <c r="D33" s="52" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E33" s="53" t="n">
-        <v>641.52</v>
-      </c>
-      <c r="F33" s="53" t="n">
-        <v>6415.23</v>
+        <v>682.21</v>
+      </c>
+      <c r="F33" s="54">
+        <f>E9*D9 + sum(H9:I9)</f>
+        <v/>
       </c>
       <c r="G33" s="51" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H33" s="52" t="n">
-        <v>6.4</v>
-      </c>
+      <c r="H33" s="52" t="n"/>
       <c r="I33" s="52" t="n">
-        <v>38.83</v>
+        <v>24.05</v>
       </c>
       <c r="J33" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K33" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L33" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M33" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N33" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O33" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P33" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q33" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R33" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S33" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T33" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U33" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V33" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W33" s="47" t="n"/>
       <c r="X33" s="47" t="n"/>
       <c r="Y33" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z33" s="47" t="n"/>
       <c r="AA33" s="47" t="n"/>
       <c r="AB33" s="48" t="n"/>
       <c r="AC33" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD33" s="49" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="50" t="n">
-        <v>44228</v>
+        <v>45722</v>
       </c>
       <c r="B34" s="51" t="inlineStr">
         <is>
@@ -2557,17 +2492,17 @@
       </c>
       <c r="C34" s="51" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D34" s="52" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E34" s="53" t="n">
-        <v>276.62</v>
+        <v>641.52</v>
       </c>
       <c r="F34" s="53" t="n">
-        <v>13831.06</v>
+        <v>6415.23</v>
       </c>
       <c r="G34" s="51" t="inlineStr">
         <is>
@@ -2575,81 +2510,81 @@
         </is>
       </c>
       <c r="H34" s="52" t="n">
-        <v>13.93</v>
+        <v>6.4</v>
       </c>
       <c r="I34" s="52" t="n">
-        <v>82.51000000000001</v>
+        <v>38.83</v>
       </c>
       <c r="J34" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K34" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L34" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M34" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N34" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O34" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P34" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q34" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R34" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S34" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T34" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U34" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V34" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W34" s="47" t="n"/>
       <c r="X34" s="47" t="n"/>
       <c r="Y34" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z34" s="47" t="n"/>
       <c r="AA34" s="47" t="n"/>
       <c r="AB34" s="48" t="n"/>
       <c r="AC34" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD34" s="49" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="50" t="n">
-        <v>43405</v>
+        <v>44228</v>
       </c>
       <c r="B35" s="51" t="inlineStr">
         <is>
@@ -2658,17 +2593,17 @@
       </c>
       <c r="C35" s="51" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D35" s="52" t="n">
         <v>50</v>
       </c>
       <c r="E35" s="53" t="n">
-        <v>183.08</v>
+        <v>276.62</v>
       </c>
       <c r="F35" s="53" t="n">
-        <v>9154.049999999999</v>
+        <v>13831.06</v>
       </c>
       <c r="G35" s="51" t="inlineStr">
         <is>
@@ -2676,105 +2611,190 @@
         </is>
       </c>
       <c r="H35" s="52" t="n">
-        <v>9.1</v>
+        <v>13.93</v>
       </c>
       <c r="I35" s="52" t="n">
-        <v>54.95</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="J35" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K35" s="47" t="n"/>
-      <c r="L35" s="47">
+      <c r="K35" s="43">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="L35" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="M35" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <v/>
+      </c>
+      <c r="N35" s="45">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <v/>
+      </c>
+      <c r="O35" s="43">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="P35" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="Q35" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <v/>
+      </c>
+      <c r="R35" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="S35" s="46">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="T35" s="47">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="U35" s="47">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <v/>
+      </c>
+      <c r="V35" s="47">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="W35" s="47" t="n"/>
+      <c r="X35" s="47" t="n"/>
+      <c r="Y35" s="46">
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="Z35" s="47" t="n"/>
+      <c r="AA35" s="47" t="n"/>
+      <c r="AB35" s="48" t="n"/>
+      <c r="AC35" s="44">
+        <f>if(B11="DIV", F11,"")</f>
+        <v/>
+      </c>
+      <c r="AD35" s="49" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="50" t="n">
+        <v>43405</v>
+      </c>
+      <c r="B36" s="51" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C36" s="51" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D36" s="52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E36" s="53" t="n">
+        <v>183.08</v>
+      </c>
+      <c r="F36" s="53" t="n">
+        <v>9154.049999999999</v>
+      </c>
+      <c r="G36" s="51" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H36" s="52" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I36" s="52" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="J36" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K36" s="47" t="n"/>
+      <c r="L36" s="47">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
-      <c r="M35" s="55">
+      <c r="M36" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
-      <c r="N35" s="56">
+      <c r="N36" s="56">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
-      <c r="O35" s="55" t="n"/>
-      <c r="P35" s="47">
+      <c r="O36" s="55" t="n"/>
+      <c r="P36" s="47">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
-      <c r="Q35" s="55">
+      <c r="Q36" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
-      <c r="R35" s="55">
+      <c r="R36" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
-      <c r="S35" s="55" t="n"/>
-      <c r="T35" s="55">
+      <c r="S36" s="55" t="n"/>
+      <c r="T36" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (J12*D12)-(E12*D12)-(2*sum(H12:I12)), "")</f>
         <v/>
       </c>
-      <c r="U35" s="55">
+      <c r="U36" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
-      <c r="V35" s="55">
+      <c r="V36" s="55">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
-      <c r="W35" s="53" t="n">
+      <c r="W36" s="53" t="n">
         <v>276.62</v>
       </c>
-      <c r="X35" s="50" t="n">
+      <c r="X36" s="50" t="n">
         <v>44228</v>
       </c>
-      <c r="Y35" s="46" t="n">
+      <c r="Y36" s="46" t="n">
         <v>0.5002681681</v>
       </c>
-      <c r="Z35" s="57" t="n">
+      <c r="Z36" s="57" t="n">
         <v>4611.522</v>
       </c>
-      <c r="AA35" s="57" t="n">
+      <c r="AA36" s="57" t="n">
         <v>13765.522</v>
       </c>
-      <c r="AB35" s="58" t="n">
+      <c r="AB36" s="58" t="n">
         <v>50</v>
       </c>
-      <c r="AC35" s="44">
+      <c r="AC36" s="44">
         <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
-      <c r="AD35" s="49" t="n"/>
-      <c r="AE35" s="59" t="n"/>
-      <c r="AF35" s="59" t="n"/>
-      <c r="AG35" s="59" t="n"/>
-      <c r="AH35" s="59" t="n"/>
-      <c r="AI35" s="59" t="n"/>
-      <c r="AJ35" s="59" t="n"/>
-      <c r="AK35" s="59" t="n"/>
-      <c r="AL35" s="59" t="n"/>
-      <c r="AM35" s="59" t="n"/>
-      <c r="AN35" s="59" t="n"/>
-      <c r="AO35" s="59" t="n"/>
-      <c r="AP35" s="59" t="n"/>
-    </row>
-    <row r="36">
-      <c r="E36" s="60" t="n"/>
-      <c r="F36" s="60" t="n"/>
-      <c r="G36" s="61" t="n"/>
-      <c r="J36" s="60" t="n"/>
-      <c r="K36" s="60" t="n"/>
-      <c r="L36" s="60" t="n"/>
-      <c r="M36" s="63" t="n"/>
-      <c r="W36" s="60" t="n"/>
-      <c r="X36" s="60" t="n"/>
-      <c r="Y36" s="60" t="n"/>
-      <c r="Z36" s="60" t="n"/>
-      <c r="AA36" s="60" t="n"/>
-      <c r="AB36" s="60" t="n"/>
-      <c r="AC36" s="60" t="n"/>
+      <c r="AD36" s="49" t="n"/>
+      <c r="AE36" s="59" t="n"/>
+      <c r="AF36" s="59" t="n"/>
+      <c r="AG36" s="59" t="n"/>
+      <c r="AH36" s="59" t="n"/>
+      <c r="AI36" s="59" t="n"/>
+      <c r="AJ36" s="59" t="n"/>
+      <c r="AK36" s="59" t="n"/>
+      <c r="AL36" s="59" t="n"/>
+      <c r="AM36" s="59" t="n"/>
+      <c r="AN36" s="59" t="n"/>
+      <c r="AO36" s="59" t="n"/>
+      <c r="AP36" s="59" t="n"/>
     </row>
     <row r="37">
       <c r="E37" s="60" t="n"/>
@@ -17743,6 +17763,7 @@
       <c r="J972" s="60" t="n"/>
       <c r="K972" s="60" t="n"/>
       <c r="L972" s="60" t="n"/>
+      <c r="M972" s="63" t="n"/>
       <c r="W972" s="60" t="n"/>
       <c r="X972" s="60" t="n"/>
       <c r="Y972" s="60" t="n"/>
@@ -17990,6 +18011,21 @@
       <c r="AA988" s="60" t="n"/>
       <c r="AB988" s="60" t="n"/>
       <c r="AC988" s="60" t="n"/>
+    </row>
+    <row r="989">
+      <c r="E989" s="60" t="n"/>
+      <c r="F989" s="60" t="n"/>
+      <c r="G989" s="61" t="n"/>
+      <c r="J989" s="60" t="n"/>
+      <c r="K989" s="60" t="n"/>
+      <c r="L989" s="60" t="n"/>
+      <c r="W989" s="60" t="n"/>
+      <c r="X989" s="60" t="n"/>
+      <c r="Y989" s="60" t="n"/>
+      <c r="Z989" s="60" t="n"/>
+      <c r="AA989" s="60" t="n"/>
+      <c r="AB989" s="60" t="n"/>
+      <c r="AC989" s="60" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$42"/>

--- a/dumps/Stocks/Tata Chemicals.xlsx
+++ b/dumps/Stocks/Tata Chemicals.xlsx
@@ -728,7 +728,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP985"/>
+  <dimension ref="A1:AP986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1078,11 +1078,11 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="67">
       <c r="A5" s="78" t="n">
-        <v>46066</v>
+        <v>46069</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1094,21 +1094,21 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>693.9</v>
+        <v>686.95</v>
       </c>
       <c r="F5" t="n">
-        <v>3493.95</v>
+        <v>3458.97</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611910666</t>
+          <t>CN#252611972212</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3.5047</v>
+        <v>3.4556</v>
       </c>
       <c r="I5" t="n">
-        <v>20.9435</v>
+        <v>20.7605</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1116,12 +1116,12 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="67">
-      <c r="A6" s="65" t="n">
-        <v>46062</v>
+      <c r="A6" s="78" t="n">
+        <v>46066</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1133,18 +1133,21 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>710</v>
+        <v>693.9</v>
       </c>
       <c r="F6" t="n">
-        <v>3567.75</v>
+        <v>3493.95</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252611910666</t>
         </is>
       </c>
+      <c r="H6" t="n">
+        <v>3.5047</v>
+      </c>
       <c r="I6" t="n">
-        <v>17.75</v>
+        <v>20.9435</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -1153,11 +1156,11 @@
     </row>
     <row r="7" ht="15.75" customHeight="1" s="67">
       <c r="A7" s="65" t="n">
-        <v>46063</v>
+        <v>46062</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1169,18 +1172,18 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>719.15</v>
+        <v>710</v>
       </c>
       <c r="F7" t="n">
-        <v>3613.75</v>
+        <v>3567.75</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>18</v>
+        <v>17.75</v>
       </c>
       <c r="J7">
         <f>Index!$C$2</f>
@@ -1189,11 +1192,11 @@
     </row>
     <row r="8" ht="15.75" customHeight="1" s="67">
       <c r="A8" s="65" t="n">
-        <v>46059</v>
+        <v>46063</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1205,18 +1208,18 @@
         <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>710.65</v>
+        <v>719.15</v>
       </c>
       <c r="F8" t="n">
-        <v>3571</v>
+        <v>3613.75</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>17.75</v>
+        <v>18</v>
       </c>
       <c r="J8">
         <f>Index!$C$2</f>
@@ -1225,7 +1228,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1" s="67">
       <c r="A9" s="65" t="n">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1238,21 +1241,21 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>713.775</v>
+        <v>710.65</v>
       </c>
       <c r="F9" t="n">
-        <v>7173.45</v>
+        <v>3571</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>35.7</v>
+        <v>17.75</v>
       </c>
       <c r="J9">
         <f>Index!$C$2</f>
@@ -1261,7 +1264,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1" s="67">
       <c r="A10" s="65" t="n">
-        <v>46027</v>
+        <v>46049</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1274,21 +1277,21 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>755.25</v>
+        <v>713.775</v>
       </c>
       <c r="F10" t="n">
-        <v>3795.15</v>
+        <v>7173.45</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CN#252610159828</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>18.9</v>
+        <v>35.7</v>
       </c>
       <c r="J10">
         <f>Index!$C$2</f>
@@ -1297,11 +1300,11 @@
     </row>
     <row r="11" ht="15.75" customHeight="1" s="67">
       <c r="A11" s="65" t="n">
-        <v>46017</v>
+        <v>46027</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1313,18 +1316,18 @@
         <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>768.05</v>
+        <v>755.25</v>
       </c>
       <c r="F11" t="n">
-        <v>3859.45</v>
+        <v>3795.15</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CN#252609810990</t>
+          <t>CN#252610159828</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="J11">
         <f>Index!$C$2</f>
@@ -1333,11 +1336,11 @@
     </row>
     <row r="12" ht="15.75" customHeight="1" s="67">
       <c r="A12" s="65" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1349,18 +1352,18 @@
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>770.85</v>
+        <v>768.05</v>
       </c>
       <c r="F12" t="n">
-        <v>3873.5</v>
+        <v>3859.45</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CN#252609755521</t>
+          <t>CN#252609810990</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>19.25</v>
+        <v>19.2</v>
       </c>
       <c r="J12">
         <f>Index!$C$2</f>
@@ -1369,7 +1372,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1" s="67">
       <c r="A13" s="65" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1385,18 +1388,18 @@
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>774.45</v>
+        <v>770.85</v>
       </c>
       <c r="F13" t="n">
-        <v>3891.6</v>
+        <v>3873.5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CN#252609701573</t>
+          <t>CN#252609755521</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>19.35</v>
+        <v>19.25</v>
       </c>
       <c r="J13">
         <f>Index!$C$2</f>
@@ -1405,11 +1408,11 @@
     </row>
     <row r="14" ht="15.75" customHeight="1" s="67">
       <c r="A14" s="65" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1421,18 +1424,18 @@
         <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>747</v>
+        <v>774.45</v>
       </c>
       <c r="F14" t="n">
-        <v>3753.7</v>
+        <v>3891.6</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>CN#252609527272</t>
+          <t>CN#252609701573</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>18.7</v>
+        <v>19.35</v>
       </c>
       <c r="J14">
         <f>Index!$C$2</f>
@@ -1441,11 +1444,11 @@
     </row>
     <row r="15" ht="15.75" customHeight="1" s="67">
       <c r="A15" s="65" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1457,18 +1460,18 @@
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>764.24</v>
+        <v>747</v>
       </c>
       <c r="F15" t="n">
-        <v>3840.3</v>
+        <v>3753.7</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252609527272</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>19.1</v>
+        <v>18.7</v>
       </c>
       <c r="J15">
         <f>Index!$C$2</f>
@@ -1477,7 +1480,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1" s="67">
       <c r="A16" s="65" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1493,18 +1496,18 @@
         <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>756</v>
+        <v>764.24</v>
       </c>
       <c r="F16" t="n">
-        <v>3798.9</v>
+        <v>3840.3</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CN#252609267726</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="J16">
         <f>Index!$C$2</f>
@@ -1513,7 +1516,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1" s="67">
       <c r="A17" s="65" t="n">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1529,14 +1532,14 @@
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>755.25</v>
+        <v>756</v>
       </c>
       <c r="F17" t="n">
-        <v>3795.15</v>
+        <v>3798.9</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CN#252609157599</t>
+          <t>CN#252609267726</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1549,7 +1552,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1" s="67">
       <c r="A18" s="65" t="n">
-        <v>45993</v>
+        <v>46000</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1565,18 +1568,18 @@
         <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>790.8</v>
+        <v>755.25</v>
       </c>
       <c r="F18" t="n">
-        <v>3973.75</v>
+        <v>3795.15</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CN#252608877522</t>
+          <t>CN#252609157599</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>19.75</v>
+        <v>18.9</v>
       </c>
       <c r="J18">
         <f>Index!$C$2</f>
@@ -1585,7 +1588,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1" s="67">
       <c r="A19" s="65" t="n">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1601,18 +1604,18 @@
         <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>804</v>
+        <v>790.8</v>
       </c>
       <c r="F19" t="n">
-        <v>4040.1</v>
+        <v>3973.75</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CN#252608755594</t>
+          <t>CN#252608877522</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>20.1</v>
+        <v>19.75</v>
       </c>
       <c r="J19">
         <f>Index!$C$2</f>
@@ -1621,11 +1624,11 @@
     </row>
     <row r="20" ht="15.75" customHeight="1" s="67">
       <c r="A20" s="65" t="n">
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1637,18 +1640,18 @@
         <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>812.9</v>
+        <v>804</v>
       </c>
       <c r="F20" t="n">
-        <v>4084.8</v>
+        <v>4040.1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CN#252608703866</t>
+          <t>CN#252608755594</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="J20">
         <f>Index!$C$2</f>
@@ -1657,11 +1660,11 @@
     </row>
     <row r="21" ht="15.75" customHeight="1" s="67">
       <c r="A21" s="65" t="n">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1673,14 +1676,14 @@
         <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>812.45</v>
+        <v>812.9</v>
       </c>
       <c r="F21" t="n">
-        <v>4082.55</v>
+        <v>4084.8</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CN#252608495287</t>
+          <t>CN#252608703866</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1693,7 +1696,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1" s="67">
       <c r="A22" s="65" t="n">
-        <v>45979</v>
+        <v>45982</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1709,18 +1712,18 @@
         <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>830.09</v>
+        <v>812.45</v>
       </c>
       <c r="F22" t="n">
-        <v>4171.2</v>
+        <v>4082.55</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CN#252608322011</t>
+          <t>CN#252608495287</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>20.75</v>
+        <v>20.3</v>
       </c>
       <c r="J22">
         <f>Index!$C$2</f>
@@ -1729,11 +1732,11 @@
     </row>
     <row r="23" ht="15.75" customHeight="1" s="67">
       <c r="A23" s="65" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1745,18 +1748,18 @@
         <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>839</v>
+        <v>830.09</v>
       </c>
       <c r="F23" t="n">
-        <v>4216</v>
+        <v>4171.2</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252608322011</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>21</v>
+        <v>20.75</v>
       </c>
       <c r="J23">
         <f>Index!$C$2</f>
@@ -1765,11 +1768,11 @@
     </row>
     <row r="24" ht="15.75" customHeight="1" s="67">
       <c r="A24" s="65" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1781,18 +1784,18 @@
         <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>837.05</v>
+        <v>839</v>
       </c>
       <c r="F24" t="n">
-        <v>4206.2</v>
+        <v>4216</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>CN#252608199734</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>20.95</v>
+        <v>21</v>
       </c>
       <c r="J24">
         <f>Index!$C$2</f>
@@ -1801,7 +1804,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1" s="67">
       <c r="A25" s="65" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1817,18 +1820,18 @@
         <v>5</v>
       </c>
       <c r="E25" t="n">
-        <v>845.75</v>
+        <v>837.05</v>
       </c>
       <c r="F25" t="n">
-        <v>4249.9</v>
+        <v>4206.2</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>CN#252608142538</t>
+          <t>CN#252608199734</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>21.15</v>
+        <v>20.95</v>
       </c>
       <c r="J25">
         <f>Index!$C$2</f>
@@ -1837,7 +1840,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1" s="67">
       <c r="A26" s="65" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1853,18 +1856,18 @@
         <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>842.15</v>
+        <v>845.75</v>
       </c>
       <c r="F26" t="n">
-        <v>4231.8</v>
+        <v>4249.9</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>CN#252608021091</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>21.05</v>
+        <v>21.15</v>
       </c>
       <c r="J26">
         <f>Index!$C$2</f>
@@ -1873,7 +1876,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1" s="67">
       <c r="A27" s="65" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1889,18 +1892,18 @@
         <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>844.15</v>
+        <v>842.15</v>
       </c>
       <c r="F27" t="n">
-        <v>4241.85</v>
+        <v>4231.8</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>CN#252607962278</t>
+          <t>CN#252608021091</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>21.1</v>
+        <v>21.05</v>
       </c>
       <c r="J27">
         <f>Index!$C$2</f>
@@ -1909,11 +1912,11 @@
     </row>
     <row r="28" ht="15.75" customHeight="1" s="67">
       <c r="A28" s="65" t="n">
-        <v>45961</v>
+        <v>45971</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1925,18 +1928,18 @@
         <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>892.95</v>
+        <v>844.15</v>
       </c>
       <c r="F28" t="n">
-        <v>4487.05</v>
+        <v>4241.85</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CN#252607606298</t>
+          <t>CN#252607962278</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>22.3</v>
+        <v>21.1</v>
       </c>
       <c r="J28">
         <f>Index!$C$2</f>
@@ -1945,7 +1948,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1" s="67">
       <c r="A29" s="65" t="n">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1961,229 +1964,164 @@
         <v>5</v>
       </c>
       <c r="E29" t="n">
+        <v>892.95</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4487.05</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>CN#252607606298</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="J29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1" s="67">
+      <c r="A30" s="65" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="n">
         <v>894.2</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F30" t="n">
         <v>4493.35</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="I29" t="n">
+      <c r="I30" t="n">
         <v>22.35</v>
       </c>
-      <c r="J29">
+      <c r="J30">
         <f>Index!$C$2</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1" s="67">
-      <c r="A30" s="25" t="n">
+    <row r="31" ht="15.75" customHeight="1" s="67">
+      <c r="A31" s="25" t="n">
         <v>45812</v>
       </c>
-      <c r="B30" s="26" t="inlineStr">
+      <c r="B31" s="26" t="inlineStr">
         <is>
           <t>DIV</t>
         </is>
       </c>
-      <c r="C30" s="26" t="inlineStr">
+      <c r="C31" s="26" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D30" s="27" t="n">
+      <c r="D31" s="27" t="n">
         <v>20</v>
       </c>
-      <c r="E30" s="28" t="n">
+      <c r="E31" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="F30" s="28" t="n">
+      <c r="F31" s="28" t="n">
         <v>120</v>
       </c>
-      <c r="G30" s="26" t="inlineStr">
+      <c r="G31" s="26" t="inlineStr">
         <is>
           <t>Annual-Dividend of Rs.6.0000/- per share on Ex-Date: 04-JUN-2025</t>
         </is>
       </c>
-      <c r="H30" s="27" t="n">
+      <c r="H31" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="27" t="n">
+      <c r="I31" s="27" t="n">
         <v>0</v>
-      </c>
-      <c r="J30" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K30" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="L30" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="M30" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
-        <v/>
-      </c>
-      <c r="N30" s="32">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
-        <v/>
-      </c>
-      <c r="O30" s="30">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="P30" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="Q30" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
-        <v/>
-      </c>
-      <c r="R30" s="31">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="S30" s="33">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="T30" s="34">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="U30" s="34">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
-        <v/>
-      </c>
-      <c r="V30" s="34">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="W30" s="34" t="n"/>
-      <c r="X30" s="34" t="n"/>
-      <c r="Y30" s="33">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/SUM(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="Z30" s="34" t="n"/>
-      <c r="AA30" s="34" t="n"/>
-      <c r="AB30" s="35" t="n"/>
-      <c r="AC30" s="31">
-        <f>IF(B7="DIV", F7,"")</f>
-        <v/>
-      </c>
-      <c r="AD30" s="36" t="n"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1" s="67">
-      <c r="A31" s="37" t="n">
-        <v>44228</v>
-      </c>
-      <c r="B31" s="38" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C31" s="38" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D31" s="39" t="n">
-        <v>50</v>
-      </c>
-      <c r="E31" s="40" t="n">
-        <v>276.62</v>
-      </c>
-      <c r="F31" s="40" t="n">
-        <v>13831.06</v>
-      </c>
-      <c r="G31" s="38" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H31" s="39" t="n">
-        <v>13.93</v>
-      </c>
-      <c r="I31" s="39" t="n">
-        <v>82.51000000000001</v>
       </c>
       <c r="J31" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K31" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L31" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M31" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N31" s="32">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O31" s="30">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P31" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R31" s="31">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S31" s="33">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T31" s="34">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U31" s="34">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V31" s="34">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W31" s="34" t="n"/>
       <c r="X31" s="34" t="n"/>
       <c r="Y31" s="33">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/SUM(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z31" s="34" t="n"/>
       <c r="AA31" s="34" t="n"/>
       <c r="AB31" s="35" t="n"/>
       <c r="AC31" s="31">
-        <f>IF(B11="DIV", F11,"")</f>
+        <f>IF(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD31" s="36" t="n"/>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="67">
       <c r="A32" s="37" t="n">
-        <v>43405</v>
+        <v>44228</v>
       </c>
       <c r="B32" s="38" t="inlineStr">
         <is>
@@ -2192,17 +2130,17 @@
       </c>
       <c r="C32" s="38" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D32" s="39" t="n">
         <v>50</v>
       </c>
       <c r="E32" s="40" t="n">
-        <v>183.08</v>
+        <v>276.62</v>
       </c>
       <c r="F32" s="40" t="n">
-        <v>9154.049999999999</v>
+        <v>13831.06</v>
       </c>
       <c r="G32" s="38" t="inlineStr">
         <is>
@@ -2210,105 +2148,190 @@
         </is>
       </c>
       <c r="H32" s="39" t="n">
-        <v>9.1</v>
+        <v>13.93</v>
       </c>
       <c r="I32" s="39" t="n">
-        <v>54.95</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="J32" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K32" s="34" t="n"/>
-      <c r="L32" s="34">
+      <c r="K32" s="30">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/SUM(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="L32" s="31">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="M32" s="31">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <v/>
+      </c>
+      <c r="N32" s="32">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <v/>
+      </c>
+      <c r="O32" s="30">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/SUM(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="P32" s="31">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="Q32" s="31">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <v/>
+      </c>
+      <c r="R32" s="31">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="S32" s="33">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/SUM(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="T32" s="34">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="U32" s="34">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <v/>
+      </c>
+      <c r="V32" s="34">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="W32" s="34" t="n"/>
+      <c r="X32" s="34" t="n"/>
+      <c r="Y32" s="33">
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/SUM(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="Z32" s="34" t="n"/>
+      <c r="AA32" s="34" t="n"/>
+      <c r="AB32" s="35" t="n"/>
+      <c r="AC32" s="31">
+        <f>IF(B11="DIV", F11,"")</f>
+        <v/>
+      </c>
+      <c r="AD32" s="36" t="n"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1" s="67">
+      <c r="A33" s="37" t="n">
+        <v>43405</v>
+      </c>
+      <c r="B33" s="38" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C33" s="38" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D33" s="39" t="n">
+        <v>50</v>
+      </c>
+      <c r="E33" s="40" t="n">
+        <v>183.08</v>
+      </c>
+      <c r="F33" s="40" t="n">
+        <v>9154.049999999999</v>
+      </c>
+      <c r="G33" s="38" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H33" s="39" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I33" s="39" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="J33" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K33" s="34" t="n"/>
+      <c r="L33" s="34">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
-      <c r="M32" s="41">
+      <c r="M33" s="41">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
-      <c r="N32" s="42">
+      <c r="N33" s="42">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
-      <c r="O32" s="41" t="n"/>
-      <c r="P32" s="34">
+      <c r="O33" s="41" t="n"/>
+      <c r="P33" s="34">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
-      <c r="Q32" s="41">
+      <c r="Q33" s="41">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
-      <c r="R32" s="41">
+      <c r="R33" s="41">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
-      <c r="S32" s="41" t="n"/>
-      <c r="T32" s="41">
+      <c r="S33" s="41" t="n"/>
+      <c r="T33" s="41">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (J12*D12)-(E12*D12)-(2*SUM(H12:I12)), "")</f>
         <v/>
       </c>
-      <c r="U32" s="41">
+      <c r="U33" s="41">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
-      <c r="V32" s="41">
+      <c r="V33" s="41">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
-      <c r="W32" s="40" t="n">
+      <c r="W33" s="40" t="n">
         <v>276.62</v>
       </c>
-      <c r="X32" s="37" t="n">
+      <c r="X33" s="37" t="n">
         <v>44228</v>
       </c>
-      <c r="Y32" s="33" t="n">
+      <c r="Y33" s="33" t="n">
         <v>0.5002681681</v>
       </c>
-      <c r="Z32" s="43" t="n">
+      <c r="Z33" s="43" t="n">
         <v>4611.522</v>
       </c>
-      <c r="AA32" s="43" t="n">
+      <c r="AA33" s="43" t="n">
         <v>13765.522</v>
       </c>
-      <c r="AB32" s="44" t="n">
+      <c r="AB33" s="44" t="n">
         <v>50</v>
       </c>
-      <c r="AC32" s="31">
+      <c r="AC33" s="31">
         <f>IF(B12="DIV", F12,"")</f>
         <v/>
       </c>
-      <c r="AD32" s="36" t="n"/>
-      <c r="AE32" s="45" t="n"/>
-      <c r="AF32" s="45" t="n"/>
-      <c r="AG32" s="45" t="n"/>
-      <c r="AH32" s="45" t="n"/>
-      <c r="AI32" s="45" t="n"/>
-      <c r="AJ32" s="45" t="n"/>
-      <c r="AK32" s="45" t="n"/>
-      <c r="AL32" s="45" t="n"/>
-      <c r="AM32" s="45" t="n"/>
-      <c r="AN32" s="45" t="n"/>
-      <c r="AO32" s="45" t="n"/>
-      <c r="AP32" s="45" t="n"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1" s="67">
-      <c r="E33" s="46" t="n"/>
-      <c r="F33" s="46" t="n"/>
-      <c r="G33" s="47" t="n"/>
-      <c r="J33" s="46" t="n"/>
-      <c r="K33" s="46" t="n"/>
-      <c r="L33" s="46" t="n"/>
-      <c r="M33" s="1" t="n"/>
-      <c r="W33" s="46" t="n"/>
-      <c r="X33" s="46" t="n"/>
-      <c r="Y33" s="46" t="n"/>
-      <c r="Z33" s="46" t="n"/>
-      <c r="AA33" s="46" t="n"/>
-      <c r="AB33" s="46" t="n"/>
-      <c r="AC33" s="46" t="n"/>
+      <c r="AD33" s="36" t="n"/>
+      <c r="AE33" s="45" t="n"/>
+      <c r="AF33" s="45" t="n"/>
+      <c r="AG33" s="45" t="n"/>
+      <c r="AH33" s="45" t="n"/>
+      <c r="AI33" s="45" t="n"/>
+      <c r="AJ33" s="45" t="n"/>
+      <c r="AK33" s="45" t="n"/>
+      <c r="AL33" s="45" t="n"/>
+      <c r="AM33" s="45" t="n"/>
+      <c r="AN33" s="45" t="n"/>
+      <c r="AO33" s="45" t="n"/>
+      <c r="AP33" s="45" t="n"/>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="67">
       <c r="E34" s="46" t="n"/>
@@ -17277,6 +17300,7 @@
       <c r="J969" s="46" t="n"/>
       <c r="K969" s="46" t="n"/>
       <c r="L969" s="46" t="n"/>
+      <c r="M969" s="1" t="n"/>
       <c r="W969" s="46" t="n"/>
       <c r="X969" s="46" t="n"/>
       <c r="Y969" s="46" t="n"/>
@@ -17524,6 +17548,21 @@
       <c r="AA985" s="46" t="n"/>
       <c r="AB985" s="46" t="n"/>
       <c r="AC985" s="46" t="n"/>
+    </row>
+    <row r="986">
+      <c r="E986" s="46" t="n"/>
+      <c r="F986" s="46" t="n"/>
+      <c r="G986" s="47" t="n"/>
+      <c r="J986" s="46" t="n"/>
+      <c r="K986" s="46" t="n"/>
+      <c r="L986" s="46" t="n"/>
+      <c r="W986" s="46" t="n"/>
+      <c r="X986" s="46" t="n"/>
+      <c r="Y986" s="46" t="n"/>
+      <c r="Z986" s="46" t="n"/>
+      <c r="AA986" s="46" t="n"/>
+      <c r="AB986" s="46" t="n"/>
+      <c r="AC986" s="46" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO37"/>
